--- a/Input/Hense_Merkur/rateSheet.xlsx
+++ b/Input/Hense_Merkur/rateSheet.xlsx
@@ -11,9 +11,9 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$481</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$K$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$481</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3370" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="32">
   <si>
     <t xml:space="preserve">planName</t>
   </si>
@@ -60,7 +60,7 @@
     <t xml:space="preserve">Select Bronze</t>
   </si>
   <si>
-    <t xml:space="preserve">UAE - Neuron General Plus Inc. MCG &amp; AHD ROW - Henner</t>
+    <t xml:space="preserve">UAE - Neuron General Plus Inc. MCG &amp; AHD</t>
   </si>
   <si>
     <t xml:space="preserve">male</t>
@@ -93,13 +93,13 @@
     <t xml:space="preserve">Select Platinum</t>
   </si>
   <si>
-    <t xml:space="preserve">20% up to a max of AED 75</t>
+    <t xml:space="preserve">20% up to a max of AED 100</t>
   </si>
   <si>
     <t xml:space="preserve">Prestige Bronze</t>
   </si>
   <si>
-    <t xml:space="preserve">UAE - Neuron- Comprehensive ROW - Henner</t>
+    <t xml:space="preserve">UAE - Neuron- Comprehensive</t>
   </si>
   <si>
     <t xml:space="preserve">Worldwide excluding USA</t>
@@ -119,15 +119,19 @@
   <si>
     <t xml:space="preserve">Prestige Platinum</t>
   </si>
+  <si>
+    <t xml:space="preserve">101280</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -176,12 +180,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -262,8 +260,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -278,10 +276,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -289,14 +283,14 @@
   </sheetPr>
   <dimension ref="A1:K481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="69.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="61.55"/>
@@ -350,7 +344,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>11860</v>
+        <v>12450</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>12</v>
@@ -382,7 +376,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>12560</v>
+        <v>13180</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>12</v>
@@ -414,7 +408,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>13230</v>
+        <v>13890</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>12</v>
@@ -446,7 +440,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>14140</v>
+        <v>14840</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>12</v>
@@ -478,7 +472,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>14860</v>
+        <v>15600</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>12</v>
@@ -510,7 +504,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>17090</v>
+        <v>17940</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>12</v>
@@ -542,7 +536,7 @@
         <v>44</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>18260</v>
+        <v>19170</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>12</v>
@@ -574,7 +568,7 @@
         <v>49</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>22110</v>
+        <v>23210</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>12</v>
@@ -606,7 +600,7 @@
         <v>54</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>26850</v>
+        <v>28180</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>12</v>
@@ -638,7 +632,7 @@
         <v>59</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>28790</v>
+        <v>30220</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>12</v>
@@ -670,7 +664,7 @@
         <v>64</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>34310</v>
+        <v>36010</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>12</v>
@@ -702,7 +696,7 @@
         <v>99</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>66630</v>
+        <v>69950</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>12</v>
@@ -734,7 +728,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11860</v>
+        <v>12450</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>17</v>
@@ -766,7 +760,7 @@
         <v>19</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12560</v>
+        <v>13180</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>17</v>
@@ -798,7 +792,7 @@
         <v>24</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>14540</v>
+        <v>15260</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>17</v>
@@ -830,7 +824,7 @@
         <v>29</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>16940</v>
+        <v>17780</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>17</v>
@@ -862,7 +856,7 @@
         <v>34</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>18560</v>
+        <v>19480</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>17</v>
@@ -894,7 +888,7 @@
         <v>39</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20480</v>
+        <v>21500</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>17</v>
@@ -926,7 +920,7 @@
         <v>44</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>20980</v>
+        <v>22020</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>17</v>
@@ -958,7 +952,7 @@
         <v>49</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>22770</v>
+        <v>23900</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>17</v>
@@ -990,7 +984,7 @@
         <v>54</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>26850</v>
+        <v>28180</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>17</v>
@@ -1022,7 +1016,7 @@
         <v>59</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>28790</v>
+        <v>30220</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>17</v>
@@ -1054,7 +1048,7 @@
         <v>64</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>34310</v>
+        <v>36010</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>17</v>
@@ -1086,7 +1080,7 @@
         <v>99</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>66630</v>
+        <v>69950</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>17</v>
@@ -1118,7 +1112,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>12720</v>
+        <v>13310</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>12</v>
@@ -1150,7 +1144,7 @@
         <v>19</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>13500</v>
+        <v>14120</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>12</v>
@@ -1182,7 +1176,7 @@
         <v>24</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>14220</v>
+        <v>14880</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>12</v>
@@ -1214,7 +1208,7 @@
         <v>29</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>15180</v>
+        <v>15880</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>12</v>
@@ -1246,7 +1240,7 @@
         <v>34</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>15970</v>
+        <v>16710</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>12</v>
@@ -1278,7 +1272,7 @@
         <v>39</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>18380</v>
+        <v>19230</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>12</v>
@@ -1310,7 +1304,7 @@
         <v>44</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>19650</v>
+        <v>20560</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>12</v>
@@ -1342,7 +1336,7 @@
         <v>49</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>23820</v>
+        <v>24920</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>12</v>
@@ -1374,7 +1368,7 @@
         <v>54</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>28930</v>
+        <v>30260</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>12</v>
@@ -1406,7 +1400,7 @@
         <v>59</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>30990</v>
+        <v>32420</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>12</v>
@@ -1438,7 +1432,7 @@
         <v>64</v>
       </c>
       <c r="E36" s="6" t="n">
-        <v>36940</v>
+        <v>38640</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>12</v>
@@ -1470,7 +1464,7 @@
         <v>99</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>69830</v>
+        <v>73150</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>12</v>
@@ -1502,7 +1496,7 @@
         <v>14</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>12720</v>
+        <v>13310</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>17</v>
@@ -1534,7 +1528,7 @@
         <v>19</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>13500</v>
+        <v>14120</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>17</v>
@@ -1566,7 +1560,7 @@
         <v>24</v>
       </c>
       <c r="E40" s="6" t="n">
-        <v>15530</v>
+        <v>16250</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>17</v>
@@ -1598,7 +1592,7 @@
         <v>29</v>
       </c>
       <c r="E41" s="6" t="n">
-        <v>17980</v>
+        <v>18820</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>17</v>
@@ -1630,7 +1624,7 @@
         <v>34</v>
       </c>
       <c r="E42" s="6" t="n">
-        <v>19670</v>
+        <v>20590</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>17</v>
@@ -1662,7 +1656,7 @@
         <v>39</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>21770</v>
+        <v>22790</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>17</v>
@@ -1694,7 +1688,7 @@
         <v>44</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>22370</v>
+        <v>23410</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>17</v>
@@ -1726,7 +1720,7 @@
         <v>49</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>24480</v>
+        <v>25610</v>
       </c>
       <c r="F45" s="0" t="s">
         <v>17</v>
@@ -1758,7 +1752,7 @@
         <v>54</v>
       </c>
       <c r="E46" s="6" t="n">
-        <v>28930</v>
+        <v>30260</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>17</v>
@@ -1790,7 +1784,7 @@
         <v>59</v>
       </c>
       <c r="E47" s="6" t="n">
-        <v>30990</v>
+        <v>32420</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>17</v>
@@ -1822,7 +1816,7 @@
         <v>64</v>
       </c>
       <c r="E48" s="6" t="n">
-        <v>36940</v>
+        <v>38640</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>17</v>
@@ -1854,7 +1848,7 @@
         <v>99</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>69830</v>
+        <v>73150</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>17</v>
@@ -1886,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>12720</v>
+        <v>13310</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>12</v>
@@ -1918,7 +1912,7 @@
         <v>19</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>13500</v>
+        <v>14120</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>12</v>
@@ -1950,7 +1944,7 @@
         <v>24</v>
       </c>
       <c r="E52" s="6" t="n">
-        <v>14220</v>
+        <v>14880</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>12</v>
@@ -1982,7 +1976,7 @@
         <v>29</v>
       </c>
       <c r="E53" s="6" t="n">
-        <v>15180</v>
+        <v>15880</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>12</v>
@@ -2014,7 +2008,7 @@
         <v>34</v>
       </c>
       <c r="E54" s="6" t="n">
-        <v>15970</v>
+        <v>16710</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>12</v>
@@ -2046,7 +2040,7 @@
         <v>39</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>18380</v>
+        <v>19230</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>12</v>
@@ -2078,7 +2072,7 @@
         <v>44</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>19650</v>
+        <v>20560</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>12</v>
@@ -2110,7 +2104,7 @@
         <v>49</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>23820</v>
+        <v>24920</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>12</v>
@@ -2142,7 +2136,7 @@
         <v>54</v>
       </c>
       <c r="E58" s="6" t="n">
-        <v>28930</v>
+        <v>30260</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>12</v>
@@ -2174,7 +2168,7 @@
         <v>59</v>
       </c>
       <c r="E59" s="6" t="n">
-        <v>30990</v>
+        <v>32420</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>12</v>
@@ -2206,7 +2200,7 @@
         <v>64</v>
       </c>
       <c r="E60" s="6" t="n">
-        <v>36940</v>
+        <v>38640</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>12</v>
@@ -2238,7 +2232,7 @@
         <v>99</v>
       </c>
       <c r="E61" s="6" t="n">
-        <v>69830</v>
+        <v>73150</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>12</v>
@@ -2270,7 +2264,7 @@
         <v>14</v>
       </c>
       <c r="E62" s="6" t="n">
-        <v>12720</v>
+        <v>13310</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>17</v>
@@ -2302,7 +2296,7 @@
         <v>19</v>
       </c>
       <c r="E63" s="6" t="n">
-        <v>13500</v>
+        <v>14120</v>
       </c>
       <c r="F63" s="0" t="s">
         <v>17</v>
@@ -2334,7 +2328,7 @@
         <v>24</v>
       </c>
       <c r="E64" s="6" t="n">
-        <v>16010</v>
+        <v>16730</v>
       </c>
       <c r="F64" s="0" t="s">
         <v>17</v>
@@ -2366,7 +2360,7 @@
         <v>29</v>
       </c>
       <c r="E65" s="6" t="n">
-        <v>18480</v>
+        <v>19320</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>17</v>
@@ -2398,7 +2392,7 @@
         <v>34</v>
       </c>
       <c r="E66" s="6" t="n">
-        <v>20180</v>
+        <v>21100</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>17</v>
@@ -2430,7 +2424,7 @@
         <v>39</v>
       </c>
       <c r="E67" s="6" t="n">
-        <v>22390</v>
+        <v>23410</v>
       </c>
       <c r="F67" s="0" t="s">
         <v>17</v>
@@ -2462,7 +2456,7 @@
         <v>44</v>
       </c>
       <c r="E68" s="6" t="n">
-        <v>23030</v>
+        <v>24070</v>
       </c>
       <c r="F68" s="0" t="s">
         <v>17</v>
@@ -2494,7 +2488,7 @@
         <v>49</v>
       </c>
       <c r="E69" s="6" t="n">
-        <v>24480</v>
+        <v>25610</v>
       </c>
       <c r="F69" s="0" t="s">
         <v>17</v>
@@ -2526,7 +2520,7 @@
         <v>54</v>
       </c>
       <c r="E70" s="6" t="n">
-        <v>28930</v>
+        <v>30260</v>
       </c>
       <c r="F70" s="0" t="s">
         <v>17</v>
@@ -2558,7 +2552,7 @@
         <v>59</v>
       </c>
       <c r="E71" s="6" t="n">
-        <v>30990</v>
+        <v>32420</v>
       </c>
       <c r="F71" s="0" t="s">
         <v>17</v>
@@ -2590,7 +2584,7 @@
         <v>64</v>
       </c>
       <c r="E72" s="6" t="n">
-        <v>36940</v>
+        <v>38640</v>
       </c>
       <c r="F72" s="0" t="s">
         <v>17</v>
@@ -2622,7 +2616,7 @@
         <v>99</v>
       </c>
       <c r="E73" s="6" t="n">
-        <v>69830</v>
+        <v>73150</v>
       </c>
       <c r="F73" s="0" t="s">
         <v>17</v>
@@ -2654,7 +2648,7 @@
         <v>14</v>
       </c>
       <c r="E74" s="6" t="n">
-        <v>13250</v>
+        <v>13840</v>
       </c>
       <c r="F74" s="0" t="s">
         <v>12</v>
@@ -2686,7 +2680,7 @@
         <v>19</v>
       </c>
       <c r="E75" s="6" t="n">
-        <v>14070</v>
+        <v>14690</v>
       </c>
       <c r="F75" s="0" t="s">
         <v>12</v>
@@ -2718,7 +2712,7 @@
         <v>24</v>
       </c>
       <c r="E76" s="6" t="n">
-        <v>14840</v>
+        <v>15500</v>
       </c>
       <c r="F76" s="0" t="s">
         <v>12</v>
@@ -2750,7 +2744,7 @@
         <v>29</v>
       </c>
       <c r="E77" s="6" t="n">
-        <v>15840</v>
+        <v>16540</v>
       </c>
       <c r="F77" s="0" t="s">
         <v>12</v>
@@ -2782,7 +2776,7 @@
         <v>34</v>
       </c>
       <c r="E78" s="6" t="n">
-        <v>16670</v>
+        <v>17410</v>
       </c>
       <c r="F78" s="0" t="s">
         <v>12</v>
@@ -2814,7 +2808,7 @@
         <v>39</v>
       </c>
       <c r="E79" s="6" t="n">
-        <v>19180</v>
+        <v>20030</v>
       </c>
       <c r="F79" s="0" t="s">
         <v>12</v>
@@ -2846,7 +2840,7 @@
         <v>44</v>
       </c>
       <c r="E80" s="6" t="n">
-        <v>20510</v>
+        <v>21420</v>
       </c>
       <c r="F80" s="0" t="s">
         <v>12</v>
@@ -2878,7 +2872,7 @@
         <v>49</v>
       </c>
       <c r="E81" s="6" t="n">
-        <v>24900</v>
+        <v>26000</v>
       </c>
       <c r="F81" s="0" t="s">
         <v>12</v>
@@ -2910,7 +2904,7 @@
         <v>54</v>
       </c>
       <c r="E82" s="6" t="n">
-        <v>30260</v>
+        <v>31590</v>
       </c>
       <c r="F82" s="0" t="s">
         <v>12</v>
@@ -2942,7 +2936,7 @@
         <v>59</v>
       </c>
       <c r="E83" s="6" t="n">
-        <v>32380</v>
+        <v>33810</v>
       </c>
       <c r="F83" s="0" t="s">
         <v>12</v>
@@ -2974,7 +2968,7 @@
         <v>64</v>
       </c>
       <c r="E84" s="6" t="n">
-        <v>38610</v>
+        <v>40310</v>
       </c>
       <c r="F84" s="0" t="s">
         <v>12</v>
@@ -3006,7 +3000,7 @@
         <v>99</v>
       </c>
       <c r="E85" s="6" t="n">
-        <v>71850</v>
+        <v>75170</v>
       </c>
       <c r="F85" s="0" t="s">
         <v>12</v>
@@ -3038,7 +3032,7 @@
         <v>14</v>
       </c>
       <c r="E86" s="6" t="n">
-        <v>13250</v>
+        <v>13840</v>
       </c>
       <c r="F86" s="0" t="s">
         <v>17</v>
@@ -3070,7 +3064,7 @@
         <v>19</v>
       </c>
       <c r="E87" s="6" t="n">
-        <v>14070</v>
+        <v>14690</v>
       </c>
       <c r="F87" s="0" t="s">
         <v>17</v>
@@ -3102,7 +3096,7 @@
         <v>24</v>
       </c>
       <c r="E88" s="6" t="n">
-        <v>16630</v>
+        <v>17350</v>
       </c>
       <c r="F88" s="0" t="s">
         <v>17</v>
@@ -3134,7 +3128,7 @@
         <v>29</v>
       </c>
       <c r="E89" s="6" t="n">
-        <v>19140</v>
+        <v>19980</v>
       </c>
       <c r="F89" s="0" t="s">
         <v>17</v>
@@ -3166,7 +3160,7 @@
         <v>34</v>
       </c>
       <c r="E90" s="6" t="n">
-        <v>20880</v>
+        <v>21800</v>
       </c>
       <c r="F90" s="0" t="s">
         <v>17</v>
@@ -3198,7 +3192,7 @@
         <v>39</v>
       </c>
       <c r="E91" s="6" t="n">
-        <v>23190</v>
+        <v>24210</v>
       </c>
       <c r="F91" s="0" t="s">
         <v>17</v>
@@ -3230,7 +3224,7 @@
         <v>44</v>
       </c>
       <c r="E92" s="6" t="n">
-        <v>23890</v>
+        <v>24930</v>
       </c>
       <c r="F92" s="0" t="s">
         <v>17</v>
@@ -3262,7 +3256,7 @@
         <v>49</v>
       </c>
       <c r="E93" s="6" t="n">
-        <v>25560</v>
+        <v>26690</v>
       </c>
       <c r="F93" s="0" t="s">
         <v>17</v>
@@ -3294,7 +3288,7 @@
         <v>54</v>
       </c>
       <c r="E94" s="6" t="n">
-        <v>30260</v>
+        <v>31590</v>
       </c>
       <c r="F94" s="0" t="s">
         <v>17</v>
@@ -3326,7 +3320,7 @@
         <v>59</v>
       </c>
       <c r="E95" s="6" t="n">
-        <v>32380</v>
+        <v>33810</v>
       </c>
       <c r="F95" s="0" t="s">
         <v>17</v>
@@ -3358,7 +3352,7 @@
         <v>64</v>
       </c>
       <c r="E96" s="6" t="n">
-        <v>38610</v>
+        <v>40310</v>
       </c>
       <c r="F96" s="0" t="s">
         <v>17</v>
@@ -3390,7 +3384,7 @@
         <v>99</v>
       </c>
       <c r="E97" s="6" t="n">
-        <v>71850</v>
+        <v>75170</v>
       </c>
       <c r="F97" s="0" t="s">
         <v>17</v>
@@ -3422,7 +3416,7 @@
         <v>14</v>
       </c>
       <c r="E98" s="6" t="n">
-        <v>13630</v>
+        <v>14220</v>
       </c>
       <c r="F98" s="0" t="s">
         <v>12</v>
@@ -3454,7 +3448,7 @@
         <v>19</v>
       </c>
       <c r="E99" s="6" t="n">
-        <v>14490</v>
+        <v>15110</v>
       </c>
       <c r="F99" s="0" t="s">
         <v>12</v>
@@ -3486,7 +3480,7 @@
         <v>24</v>
       </c>
       <c r="E100" s="6" t="n">
-        <v>15290</v>
+        <v>15950</v>
       </c>
       <c r="F100" s="0" t="s">
         <v>12</v>
@@ -3518,7 +3512,7 @@
         <v>29</v>
       </c>
       <c r="E101" s="6" t="n">
-        <v>16330</v>
+        <v>17030</v>
       </c>
       <c r="F101" s="0" t="s">
         <v>12</v>
@@ -3550,7 +3544,7 @@
         <v>34</v>
       </c>
       <c r="E102" s="6" t="n">
-        <v>17170</v>
+        <v>17910</v>
       </c>
       <c r="F102" s="0" t="s">
         <v>12</v>
@@ -3582,7 +3576,7 @@
         <v>39</v>
       </c>
       <c r="E103" s="6" t="n">
-        <v>19770</v>
+        <v>20620</v>
       </c>
       <c r="F103" s="0" t="s">
         <v>12</v>
@@ -3614,7 +3608,7 @@
         <v>44</v>
       </c>
       <c r="E104" s="6" t="n">
-        <v>21140</v>
+        <v>22050</v>
       </c>
       <c r="F104" s="0" t="s">
         <v>12</v>
@@ -3646,7 +3640,7 @@
         <v>49</v>
       </c>
       <c r="E105" s="6" t="n">
-        <v>25670</v>
+        <v>26770</v>
       </c>
       <c r="F105" s="0" t="s">
         <v>12</v>
@@ -3678,7 +3672,7 @@
         <v>54</v>
       </c>
       <c r="E106" s="6" t="n">
-        <v>31200</v>
+        <v>32530</v>
       </c>
       <c r="F106" s="0" t="s">
         <v>12</v>
@@ -3710,7 +3704,7 @@
         <v>59</v>
       </c>
       <c r="E107" s="6" t="n">
-        <v>33350</v>
+        <v>34780</v>
       </c>
       <c r="F107" s="0" t="s">
         <v>12</v>
@@ -3742,7 +3736,7 @@
         <v>64</v>
       </c>
       <c r="E108" s="6" t="n">
-        <v>39770</v>
+        <v>41470</v>
       </c>
       <c r="F108" s="0" t="s">
         <v>12</v>
@@ -3774,7 +3768,7 @@
         <v>99</v>
       </c>
       <c r="E109" s="6" t="n">
-        <v>73260</v>
+        <v>76580</v>
       </c>
       <c r="F109" s="0" t="s">
         <v>12</v>
@@ -3806,7 +3800,7 @@
         <v>14</v>
       </c>
       <c r="E110" s="6" t="n">
-        <v>13630</v>
+        <v>14220</v>
       </c>
       <c r="F110" s="0" t="s">
         <v>17</v>
@@ -3838,7 +3832,7 @@
         <v>19</v>
       </c>
       <c r="E111" s="6" t="n">
-        <v>14490</v>
+        <v>15110</v>
       </c>
       <c r="F111" s="0" t="s">
         <v>17</v>
@@ -3870,7 +3864,7 @@
         <v>24</v>
       </c>
       <c r="E112" s="6" t="n">
-        <v>17080</v>
+        <v>17800</v>
       </c>
       <c r="F112" s="0" t="s">
         <v>17</v>
@@ -3902,7 +3896,7 @@
         <v>29</v>
       </c>
       <c r="E113" s="6" t="n">
-        <v>19630</v>
+        <v>20470</v>
       </c>
       <c r="F113" s="0" t="s">
         <v>17</v>
@@ -3934,7 +3928,7 @@
         <v>34</v>
       </c>
       <c r="E114" s="6" t="n">
-        <v>21380</v>
+        <v>22300</v>
       </c>
       <c r="F114" s="0" t="s">
         <v>17</v>
@@ -3966,7 +3960,7 @@
         <v>39</v>
       </c>
       <c r="E115" s="6" t="n">
-        <v>23780</v>
+        <v>24800</v>
       </c>
       <c r="F115" s="0" t="s">
         <v>17</v>
@@ -3998,7 +3992,7 @@
         <v>44</v>
       </c>
       <c r="E116" s="6" t="n">
-        <v>24520</v>
+        <v>25560</v>
       </c>
       <c r="F116" s="0" t="s">
         <v>17</v>
@@ -4030,7 +4024,7 @@
         <v>49</v>
       </c>
       <c r="E117" s="6" t="n">
-        <v>26330</v>
+        <v>27460</v>
       </c>
       <c r="F117" s="0" t="s">
         <v>17</v>
@@ -4062,7 +4056,7 @@
         <v>54</v>
       </c>
       <c r="E118" s="6" t="n">
-        <v>31200</v>
+        <v>32530</v>
       </c>
       <c r="F118" s="0" t="s">
         <v>17</v>
@@ -4094,7 +4088,7 @@
         <v>59</v>
       </c>
       <c r="E119" s="6" t="n">
-        <v>33350</v>
+        <v>34780</v>
       </c>
       <c r="F119" s="0" t="s">
         <v>17</v>
@@ -4126,7 +4120,7 @@
         <v>64</v>
       </c>
       <c r="E120" s="6" t="n">
-        <v>39770</v>
+        <v>41470</v>
       </c>
       <c r="F120" s="0" t="s">
         <v>17</v>
@@ -4158,7 +4152,7 @@
         <v>99</v>
       </c>
       <c r="E121" s="6" t="n">
-        <v>73260</v>
+        <v>76580</v>
       </c>
       <c r="F121" s="0" t="s">
         <v>17</v>
@@ -4176,7 +4170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
         <v>10</v>
       </c>
@@ -4190,7 +4184,7 @@
         <v>14</v>
       </c>
       <c r="E122" s="6" t="n">
-        <v>11500</v>
+        <v>11830</v>
       </c>
       <c r="F122" s="0" t="s">
         <v>12</v>
@@ -4208,7 +4202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
         <v>10</v>
       </c>
@@ -4222,7 +4216,7 @@
         <v>19</v>
       </c>
       <c r="E123" s="6" t="n">
-        <v>12180</v>
+        <v>12520</v>
       </c>
       <c r="F123" s="0" t="s">
         <v>12</v>
@@ -4240,7 +4234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
         <v>10</v>
       </c>
@@ -4254,7 +4248,7 @@
         <v>24</v>
       </c>
       <c r="E124" s="6" t="n">
-        <v>12830</v>
+        <v>13200</v>
       </c>
       <c r="F124" s="0" t="s">
         <v>12</v>
@@ -4272,7 +4266,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
         <v>10</v>
       </c>
@@ -4286,7 +4280,7 @@
         <v>29</v>
       </c>
       <c r="E125" s="6" t="n">
-        <v>13720</v>
+        <v>14100</v>
       </c>
       <c r="F125" s="0" t="s">
         <v>12</v>
@@ -4304,7 +4298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
         <v>10</v>
       </c>
@@ -4318,7 +4312,7 @@
         <v>34</v>
       </c>
       <c r="E126" s="6" t="n">
-        <v>14410</v>
+        <v>14820</v>
       </c>
       <c r="F126" s="0" t="s">
         <v>12</v>
@@ -4336,7 +4330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
         <v>10</v>
       </c>
@@ -4350,7 +4344,7 @@
         <v>39</v>
       </c>
       <c r="E127" s="6" t="n">
-        <v>16580</v>
+        <v>17040</v>
       </c>
       <c r="F127" s="0" t="s">
         <v>12</v>
@@ -4368,7 +4362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
         <v>10</v>
       </c>
@@ -4382,7 +4376,7 @@
         <v>44</v>
       </c>
       <c r="E128" s="6" t="n">
-        <v>17710</v>
+        <v>18210</v>
       </c>
       <c r="F128" s="0" t="s">
         <v>12</v>
@@ -4400,7 +4394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
         <v>10</v>
       </c>
@@ -4414,7 +4408,7 @@
         <v>49</v>
       </c>
       <c r="E129" s="6" t="n">
-        <v>21450</v>
+        <v>22050</v>
       </c>
       <c r="F129" s="0" t="s">
         <v>12</v>
@@ -4432,7 +4426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
         <v>10</v>
       </c>
@@ -4446,7 +4440,7 @@
         <v>54</v>
       </c>
       <c r="E130" s="6" t="n">
-        <v>26040</v>
+        <v>26770</v>
       </c>
       <c r="F130" s="0" t="s">
         <v>12</v>
@@ -4464,7 +4458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
         <v>10</v>
       </c>
@@ -4478,7 +4472,7 @@
         <v>59</v>
       </c>
       <c r="E131" s="6" t="n">
-        <v>27930</v>
+        <v>28710</v>
       </c>
       <c r="F131" s="0" t="s">
         <v>12</v>
@@ -4496,7 +4490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
         <v>10</v>
       </c>
@@ -4510,7 +4504,7 @@
         <v>64</v>
       </c>
       <c r="E132" s="6" t="n">
-        <v>33280</v>
+        <v>34210</v>
       </c>
       <c r="F132" s="0" t="s">
         <v>12</v>
@@ -4528,7 +4522,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
         <v>10</v>
       </c>
@@ -4542,7 +4536,7 @@
         <v>99</v>
       </c>
       <c r="E133" s="6" t="n">
-        <v>64630</v>
+        <v>66450</v>
       </c>
       <c r="F133" s="0" t="s">
         <v>12</v>
@@ -4560,7 +4554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
         <v>10</v>
       </c>
@@ -4574,7 +4568,7 @@
         <v>14</v>
       </c>
       <c r="E134" s="6" t="n">
-        <v>11500</v>
+        <v>11830</v>
       </c>
       <c r="F134" s="0" t="s">
         <v>17</v>
@@ -4592,7 +4586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
         <v>10</v>
       </c>
@@ -4606,7 +4600,7 @@
         <v>19</v>
       </c>
       <c r="E135" s="6" t="n">
-        <v>12180</v>
+        <v>12520</v>
       </c>
       <c r="F135" s="0" t="s">
         <v>17</v>
@@ -4624,7 +4618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
         <v>10</v>
       </c>
@@ -4638,7 +4632,7 @@
         <v>24</v>
       </c>
       <c r="E136" s="6" t="n">
-        <v>14100</v>
+        <v>14500</v>
       </c>
       <c r="F136" s="0" t="s">
         <v>17</v>
@@ -4656,7 +4650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
         <v>10</v>
       </c>
@@ -4670,7 +4664,7 @@
         <v>29</v>
       </c>
       <c r="E137" s="6" t="n">
-        <v>16430</v>
+        <v>16890</v>
       </c>
       <c r="F137" s="0" t="s">
         <v>17</v>
@@ -4688,7 +4682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
         <v>10</v>
       </c>
@@ -4702,7 +4696,7 @@
         <v>34</v>
       </c>
       <c r="E138" s="6" t="n">
-        <v>18000</v>
+        <v>18510</v>
       </c>
       <c r="F138" s="0" t="s">
         <v>17</v>
@@ -4720,7 +4714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
         <v>10</v>
       </c>
@@ -4734,7 +4728,7 @@
         <v>39</v>
       </c>
       <c r="E139" s="6" t="n">
-        <v>19870</v>
+        <v>20430</v>
       </c>
       <c r="F139" s="0" t="s">
         <v>17</v>
@@ -4752,7 +4746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
         <v>10</v>
       </c>
@@ -4766,7 +4760,7 @@
         <v>44</v>
       </c>
       <c r="E140" s="6" t="n">
-        <v>20350</v>
+        <v>20920</v>
       </c>
       <c r="F140" s="0" t="s">
         <v>17</v>
@@ -4784,7 +4778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
         <v>10</v>
       </c>
@@ -4798,7 +4792,7 @@
         <v>49</v>
       </c>
       <c r="E141" s="6" t="n">
-        <v>22090</v>
+        <v>22710</v>
       </c>
       <c r="F141" s="0" t="s">
         <v>17</v>
@@ -4816,7 +4810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
         <v>10</v>
       </c>
@@ -4830,7 +4824,7 @@
         <v>54</v>
       </c>
       <c r="E142" s="6" t="n">
-        <v>26040</v>
+        <v>26770</v>
       </c>
       <c r="F142" s="0" t="s">
         <v>17</v>
@@ -4848,7 +4842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
         <v>10</v>
       </c>
@@ -4862,7 +4856,7 @@
         <v>59</v>
       </c>
       <c r="E143" s="6" t="n">
-        <v>27930</v>
+        <v>28710</v>
       </c>
       <c r="F143" s="0" t="s">
         <v>17</v>
@@ -4880,7 +4874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
         <v>10</v>
       </c>
@@ -4894,7 +4888,7 @@
         <v>64</v>
       </c>
       <c r="E144" s="6" t="n">
-        <v>33280</v>
+        <v>34210</v>
       </c>
       <c r="F144" s="0" t="s">
         <v>17</v>
@@ -4912,7 +4906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
         <v>10</v>
       </c>
@@ -4926,7 +4920,7 @@
         <v>99</v>
       </c>
       <c r="E145" s="6" t="n">
-        <v>64630</v>
+        <v>66450</v>
       </c>
       <c r="F145" s="0" t="s">
         <v>17</v>
@@ -4944,7 +4938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
         <v>18</v>
       </c>
@@ -4958,7 +4952,7 @@
         <v>14</v>
       </c>
       <c r="E146" s="6" t="n">
-        <v>12340</v>
+        <v>12640</v>
       </c>
       <c r="F146" s="0" t="s">
         <v>12</v>
@@ -4976,7 +4970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
         <v>18</v>
       </c>
@@ -4990,7 +4984,7 @@
         <v>19</v>
       </c>
       <c r="E147" s="6" t="n">
-        <v>13100</v>
+        <v>13410</v>
       </c>
       <c r="F147" s="0" t="s">
         <v>12</v>
@@ -5008,7 +5002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
         <v>18</v>
       </c>
@@ -5022,7 +5016,7 @@
         <v>24</v>
       </c>
       <c r="E148" s="6" t="n">
-        <v>13790</v>
+        <v>14140</v>
       </c>
       <c r="F148" s="0" t="s">
         <v>12</v>
@@ -5040,7 +5034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
         <v>18</v>
       </c>
@@ -5054,7 +5048,7 @@
         <v>29</v>
       </c>
       <c r="E149" s="6" t="n">
-        <v>14720</v>
+        <v>15090</v>
       </c>
       <c r="F149" s="0" t="s">
         <v>12</v>
@@ -5072,7 +5066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
         <v>18</v>
       </c>
@@ -5086,7 +5080,7 @@
         <v>34</v>
       </c>
       <c r="E150" s="6" t="n">
-        <v>15490</v>
+        <v>15870</v>
       </c>
       <c r="F150" s="0" t="s">
         <v>12</v>
@@ -5104,7 +5098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
         <v>18</v>
       </c>
@@ -5118,7 +5112,7 @@
         <v>39</v>
       </c>
       <c r="E151" s="6" t="n">
-        <v>17830</v>
+        <v>18270</v>
       </c>
       <c r="F151" s="0" t="s">
         <v>12</v>
@@ -5136,7 +5130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
         <v>18</v>
       </c>
@@ -5150,7 +5144,7 @@
         <v>44</v>
       </c>
       <c r="E152" s="6" t="n">
-        <v>19060</v>
+        <v>19530</v>
       </c>
       <c r="F152" s="0" t="s">
         <v>12</v>
@@ -5168,7 +5162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
         <v>18</v>
       </c>
@@ -5182,7 +5176,7 @@
         <v>49</v>
       </c>
       <c r="E153" s="6" t="n">
-        <v>23110</v>
+        <v>23670</v>
       </c>
       <c r="F153" s="0" t="s">
         <v>12</v>
@@ -5200,7 +5194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
         <v>18</v>
       </c>
@@ -5214,7 +5208,7 @@
         <v>54</v>
       </c>
       <c r="E154" s="6" t="n">
-        <v>28060</v>
+        <v>28750</v>
       </c>
       <c r="F154" s="0" t="s">
         <v>12</v>
@@ -5232,7 +5226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
         <v>18</v>
       </c>
@@ -5246,7 +5240,7 @@
         <v>59</v>
       </c>
       <c r="E155" s="6" t="n">
-        <v>30060</v>
+        <v>30800</v>
       </c>
       <c r="F155" s="0" t="s">
         <v>12</v>
@@ -5264,7 +5258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
         <v>18</v>
       </c>
@@ -5278,7 +5272,7 @@
         <v>64</v>
       </c>
       <c r="E156" s="6" t="n">
-        <v>35830</v>
+        <v>36710</v>
       </c>
       <c r="F156" s="0" t="s">
         <v>12</v>
@@ -5296,7 +5290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
         <v>18</v>
       </c>
@@ -5310,7 +5304,7 @@
         <v>99</v>
       </c>
       <c r="E157" s="6" t="n">
-        <v>67740</v>
+        <v>69490</v>
       </c>
       <c r="F157" s="0" t="s">
         <v>12</v>
@@ -5328,7 +5322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
         <v>18</v>
       </c>
@@ -5342,7 +5336,7 @@
         <v>14</v>
       </c>
       <c r="E158" s="6" t="n">
-        <v>12340</v>
+        <v>12640</v>
       </c>
       <c r="F158" s="0" t="s">
         <v>17</v>
@@ -5360,7 +5354,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
         <v>18</v>
       </c>
@@ -5374,7 +5368,7 @@
         <v>19</v>
       </c>
       <c r="E159" s="6" t="n">
-        <v>13100</v>
+        <v>13410</v>
       </c>
       <c r="F159" s="0" t="s">
         <v>17</v>
@@ -5392,7 +5386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="4" t="s">
         <v>18</v>
       </c>
@@ -5406,7 +5400,7 @@
         <v>24</v>
       </c>
       <c r="E160" s="6" t="n">
-        <v>15060</v>
+        <v>15440</v>
       </c>
       <c r="F160" s="0" t="s">
         <v>17</v>
@@ -5424,7 +5418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="4" t="s">
         <v>18</v>
       </c>
@@ -5438,7 +5432,7 @@
         <v>29</v>
       </c>
       <c r="E161" s="6" t="n">
-        <v>17440</v>
+        <v>17880</v>
       </c>
       <c r="F161" s="0" t="s">
         <v>17</v>
@@ -5456,7 +5450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
         <v>18</v>
       </c>
@@ -5470,7 +5464,7 @@
         <v>34</v>
       </c>
       <c r="E162" s="6" t="n">
-        <v>19080</v>
+        <v>19560</v>
       </c>
       <c r="F162" s="0" t="s">
         <v>17</v>
@@ -5488,7 +5482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
         <v>18</v>
       </c>
@@ -5502,7 +5496,7 @@
         <v>39</v>
       </c>
       <c r="E163" s="6" t="n">
-        <v>21120</v>
+        <v>21650</v>
       </c>
       <c r="F163" s="0" t="s">
         <v>17</v>
@@ -5520,7 +5514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
         <v>18</v>
       </c>
@@ -5534,7 +5528,7 @@
         <v>44</v>
       </c>
       <c r="E164" s="6" t="n">
-        <v>21700</v>
+        <v>22240</v>
       </c>
       <c r="F164" s="0" t="s">
         <v>17</v>
@@ -5552,7 +5546,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
         <v>18</v>
       </c>
@@ -5566,7 +5560,7 @@
         <v>49</v>
       </c>
       <c r="E165" s="6" t="n">
-        <v>23750</v>
+        <v>24330</v>
       </c>
       <c r="F165" s="0" t="s">
         <v>17</v>
@@ -5584,7 +5578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
         <v>18</v>
       </c>
@@ -5598,7 +5592,7 @@
         <v>54</v>
       </c>
       <c r="E166" s="6" t="n">
-        <v>28060</v>
+        <v>28750</v>
       </c>
       <c r="F166" s="0" t="s">
         <v>17</v>
@@ -5616,7 +5610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
         <v>18</v>
       </c>
@@ -5630,7 +5624,7 @@
         <v>59</v>
       </c>
       <c r="E167" s="6" t="n">
-        <v>30060</v>
+        <v>30800</v>
       </c>
       <c r="F167" s="0" t="s">
         <v>17</v>
@@ -5648,7 +5642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
         <v>18</v>
       </c>
@@ -5662,7 +5656,7 @@
         <v>64</v>
       </c>
       <c r="E168" s="6" t="n">
-        <v>35830</v>
+        <v>36710</v>
       </c>
       <c r="F168" s="0" t="s">
         <v>17</v>
@@ -5680,7 +5674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
         <v>18</v>
       </c>
@@ -5694,7 +5688,7 @@
         <v>99</v>
       </c>
       <c r="E169" s="6" t="n">
-        <v>67740</v>
+        <v>69490</v>
       </c>
       <c r="F169" s="0" t="s">
         <v>17</v>
@@ -5712,7 +5706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
         <v>19</v>
       </c>
@@ -5726,7 +5720,7 @@
         <v>14</v>
       </c>
       <c r="E170" s="6" t="n">
-        <v>12340</v>
+        <v>12640</v>
       </c>
       <c r="F170" s="0" t="s">
         <v>12</v>
@@ -5744,7 +5738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="4" t="s">
         <v>19</v>
       </c>
@@ -5758,7 +5752,7 @@
         <v>19</v>
       </c>
       <c r="E171" s="6" t="n">
-        <v>13100</v>
+        <v>13410</v>
       </c>
       <c r="F171" s="0" t="s">
         <v>12</v>
@@ -5776,7 +5770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="4" t="s">
         <v>19</v>
       </c>
@@ -5790,7 +5784,7 @@
         <v>24</v>
       </c>
       <c r="E172" s="6" t="n">
-        <v>13790</v>
+        <v>14140</v>
       </c>
       <c r="F172" s="0" t="s">
         <v>12</v>
@@ -5808,7 +5802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="4" t="s">
         <v>19</v>
       </c>
@@ -5822,7 +5816,7 @@
         <v>29</v>
       </c>
       <c r="E173" s="6" t="n">
-        <v>14720</v>
+        <v>15090</v>
       </c>
       <c r="F173" s="0" t="s">
         <v>12</v>
@@ -5840,7 +5834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
         <v>19</v>
       </c>
@@ -5854,7 +5848,7 @@
         <v>34</v>
       </c>
       <c r="E174" s="6" t="n">
-        <v>15490</v>
+        <v>15870</v>
       </c>
       <c r="F174" s="0" t="s">
         <v>12</v>
@@ -5872,7 +5866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="s">
         <v>19</v>
       </c>
@@ -5886,7 +5880,7 @@
         <v>39</v>
       </c>
       <c r="E175" s="6" t="n">
-        <v>17830</v>
+        <v>18270</v>
       </c>
       <c r="F175" s="0" t="s">
         <v>12</v>
@@ -5904,7 +5898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="4" t="s">
         <v>19</v>
       </c>
@@ -5918,7 +5912,7 @@
         <v>44</v>
       </c>
       <c r="E176" s="6" t="n">
-        <v>19060</v>
+        <v>19530</v>
       </c>
       <c r="F176" s="0" t="s">
         <v>12</v>
@@ -5936,7 +5930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
         <v>19</v>
       </c>
@@ -5950,7 +5944,7 @@
         <v>49</v>
       </c>
       <c r="E177" s="6" t="n">
-        <v>23110</v>
+        <v>23670</v>
       </c>
       <c r="F177" s="0" t="s">
         <v>12</v>
@@ -5968,7 +5962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
         <v>19</v>
       </c>
@@ -5982,7 +5976,7 @@
         <v>54</v>
       </c>
       <c r="E178" s="6" t="n">
-        <v>28060</v>
+        <v>28750</v>
       </c>
       <c r="F178" s="0" t="s">
         <v>12</v>
@@ -6000,7 +5994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
         <v>19</v>
       </c>
@@ -6014,7 +6008,7 @@
         <v>59</v>
       </c>
       <c r="E179" s="6" t="n">
-        <v>30060</v>
+        <v>30800</v>
       </c>
       <c r="F179" s="0" t="s">
         <v>12</v>
@@ -6032,7 +6026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="4" t="s">
         <v>19</v>
       </c>
@@ -6046,7 +6040,7 @@
         <v>64</v>
       </c>
       <c r="E180" s="6" t="n">
-        <v>35830</v>
+        <v>36710</v>
       </c>
       <c r="F180" s="0" t="s">
         <v>12</v>
@@ -6064,7 +6058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="s">
         <v>19</v>
       </c>
@@ -6078,7 +6072,7 @@
         <v>99</v>
       </c>
       <c r="E181" s="6" t="n">
-        <v>67740</v>
+        <v>69490</v>
       </c>
       <c r="F181" s="0" t="s">
         <v>12</v>
@@ -6096,7 +6090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="4" t="s">
         <v>19</v>
       </c>
@@ -6110,7 +6104,7 @@
         <v>14</v>
       </c>
       <c r="E182" s="6" t="n">
-        <v>12340</v>
+        <v>12640</v>
       </c>
       <c r="F182" s="0" t="s">
         <v>17</v>
@@ -6128,7 +6122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="4" t="s">
         <v>19</v>
       </c>
@@ -6142,7 +6136,7 @@
         <v>19</v>
       </c>
       <c r="E183" s="6" t="n">
-        <v>13100</v>
+        <v>13410</v>
       </c>
       <c r="F183" s="0" t="s">
         <v>17</v>
@@ -6160,7 +6154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="4" t="s">
         <v>19</v>
       </c>
@@ -6174,7 +6168,7 @@
         <v>24</v>
       </c>
       <c r="E184" s="6" t="n">
-        <v>15530</v>
+        <v>15890</v>
       </c>
       <c r="F184" s="0" t="s">
         <v>17</v>
@@ -6192,7 +6186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="4" t="s">
         <v>19</v>
       </c>
@@ -6206,7 +6200,7 @@
         <v>29</v>
       </c>
       <c r="E185" s="6" t="n">
-        <v>17930</v>
+        <v>18350</v>
       </c>
       <c r="F185" s="0" t="s">
         <v>17</v>
@@ -6224,7 +6218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="4" t="s">
         <v>19</v>
       </c>
@@ -6238,7 +6232,7 @@
         <v>34</v>
       </c>
       <c r="E186" s="6" t="n">
-        <v>19570</v>
+        <v>20050</v>
       </c>
       <c r="F186" s="0" t="s">
         <v>17</v>
@@ -6256,7 +6250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="4" t="s">
         <v>19</v>
       </c>
@@ -6270,7 +6264,7 @@
         <v>39</v>
       </c>
       <c r="E187" s="6" t="n">
-        <v>21720</v>
+        <v>22240</v>
       </c>
       <c r="F187" s="0" t="s">
         <v>17</v>
@@ -6288,7 +6282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="4" t="s">
         <v>19</v>
       </c>
@@ -6302,7 +6296,7 @@
         <v>44</v>
       </c>
       <c r="E188" s="6" t="n">
-        <v>22340</v>
+        <v>22870</v>
       </c>
       <c r="F188" s="0" t="s">
         <v>17</v>
@@ -6320,7 +6314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="4" t="s">
         <v>19</v>
       </c>
@@ -6334,7 +6328,7 @@
         <v>49</v>
       </c>
       <c r="E189" s="6" t="n">
-        <v>23750</v>
+        <v>24330</v>
       </c>
       <c r="F189" s="0" t="s">
         <v>17</v>
@@ -6352,7 +6346,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="4" t="s">
         <v>19</v>
       </c>
@@ -6366,7 +6360,7 @@
         <v>54</v>
       </c>
       <c r="E190" s="6" t="n">
-        <v>28060</v>
+        <v>28750</v>
       </c>
       <c r="F190" s="0" t="s">
         <v>17</v>
@@ -6384,7 +6378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="4" t="s">
         <v>19</v>
       </c>
@@ -6398,7 +6392,7 @@
         <v>59</v>
       </c>
       <c r="E191" s="6" t="n">
-        <v>30060</v>
+        <v>30800</v>
       </c>
       <c r="F191" s="0" t="s">
         <v>17</v>
@@ -6416,7 +6410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="4" t="s">
         <v>19</v>
       </c>
@@ -6430,7 +6424,7 @@
         <v>64</v>
       </c>
       <c r="E192" s="6" t="n">
-        <v>35830</v>
+        <v>36710</v>
       </c>
       <c r="F192" s="0" t="s">
         <v>17</v>
@@ -6448,7 +6442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="4" t="s">
         <v>19</v>
       </c>
@@ -6462,7 +6456,7 @@
         <v>99</v>
       </c>
       <c r="E193" s="6" t="n">
-        <v>67740</v>
+        <v>69490</v>
       </c>
       <c r="F193" s="0" t="s">
         <v>17</v>
@@ -6480,7 +6474,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="4" t="s">
         <v>20</v>
       </c>
@@ -6494,7 +6488,7 @@
         <v>14</v>
       </c>
       <c r="E194" s="6" t="n">
-        <v>12850</v>
+        <v>13150</v>
       </c>
       <c r="F194" s="0" t="s">
         <v>12</v>
@@ -6512,7 +6506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="4" t="s">
         <v>20</v>
       </c>
@@ -6526,7 +6520,7 @@
         <v>19</v>
       </c>
       <c r="E195" s="6" t="n">
-        <v>13650</v>
+        <v>13960</v>
       </c>
       <c r="F195" s="0" t="s">
         <v>12</v>
@@ -6544,7 +6538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="4" t="s">
         <v>20</v>
       </c>
@@ -6558,7 +6552,7 @@
         <v>24</v>
       </c>
       <c r="E196" s="6" t="n">
-        <v>14390</v>
+        <v>14730</v>
       </c>
       <c r="F196" s="0" t="s">
         <v>12</v>
@@ -6576,7 +6570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="4" t="s">
         <v>20</v>
       </c>
@@ -6590,7 +6584,7 @@
         <v>29</v>
       </c>
       <c r="E197" s="6" t="n">
-        <v>15360</v>
+        <v>15710</v>
       </c>
       <c r="F197" s="0" t="s">
         <v>12</v>
@@ -6608,7 +6602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="4" t="s">
         <v>20</v>
       </c>
@@ -6622,7 +6616,7 @@
         <v>34</v>
       </c>
       <c r="E198" s="6" t="n">
-        <v>16170</v>
+        <v>16540</v>
       </c>
       <c r="F198" s="0" t="s">
         <v>12</v>
@@ -6640,7 +6634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="4" t="s">
         <v>20</v>
       </c>
@@ -6654,7 +6648,7 @@
         <v>39</v>
       </c>
       <c r="E199" s="6" t="n">
-        <v>18600</v>
+        <v>19030</v>
       </c>
       <c r="F199" s="0" t="s">
         <v>12</v>
@@ -6672,7 +6666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="4" t="s">
         <v>20</v>
       </c>
@@ -6686,7 +6680,7 @@
         <v>44</v>
       </c>
       <c r="E200" s="6" t="n">
-        <v>19890</v>
+        <v>20350</v>
       </c>
       <c r="F200" s="0" t="s">
         <v>12</v>
@@ -6704,7 +6698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="4" t="s">
         <v>20</v>
       </c>
@@ -6718,7 +6712,7 @@
         <v>49</v>
       </c>
       <c r="E201" s="6" t="n">
-        <v>24150</v>
+        <v>24700</v>
       </c>
       <c r="F201" s="0" t="s">
         <v>12</v>
@@ -6736,7 +6730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="4" t="s">
         <v>20</v>
       </c>
@@ -6750,7 +6744,7 @@
         <v>54</v>
       </c>
       <c r="E202" s="6" t="n">
-        <v>29350</v>
+        <v>30010</v>
       </c>
       <c r="F202" s="0" t="s">
         <v>12</v>
@@ -6768,7 +6762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="4" t="s">
         <v>20</v>
       </c>
@@ -6782,7 +6776,7 @@
         <v>59</v>
       </c>
       <c r="E203" s="6" t="n">
-        <v>31410</v>
+        <v>32120</v>
       </c>
       <c r="F203" s="0" t="s">
         <v>12</v>
@@ -6800,7 +6794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="4" t="s">
         <v>20</v>
       </c>
@@ -6814,7 +6808,7 @@
         <v>64</v>
       </c>
       <c r="E204" s="6" t="n">
-        <v>37450</v>
+        <v>38290</v>
       </c>
       <c r="F204" s="0" t="s">
         <v>12</v>
@@ -6832,7 +6826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="4" t="s">
         <v>20</v>
       </c>
@@ -6846,7 +6840,7 @@
         <v>99</v>
       </c>
       <c r="E205" s="6" t="n">
-        <v>69690</v>
+        <v>71410</v>
       </c>
       <c r="F205" s="0" t="s">
         <v>12</v>
@@ -6864,7 +6858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="4" t="s">
         <v>20</v>
       </c>
@@ -6878,7 +6872,7 @@
         <v>14</v>
       </c>
       <c r="E206" s="6" t="n">
-        <v>12850</v>
+        <v>13150</v>
       </c>
       <c r="F206" s="0" t="s">
         <v>17</v>
@@ -6896,7 +6890,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="4" t="s">
         <v>20</v>
       </c>
@@ -6910,7 +6904,7 @@
         <v>19</v>
       </c>
       <c r="E207" s="6" t="n">
-        <v>13650</v>
+        <v>13960</v>
       </c>
       <c r="F207" s="0" t="s">
         <v>17</v>
@@ -6928,7 +6922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="4" t="s">
         <v>20</v>
       </c>
@@ -6942,7 +6936,7 @@
         <v>24</v>
       </c>
       <c r="E208" s="6" t="n">
-        <v>16130</v>
+        <v>16480</v>
       </c>
       <c r="F208" s="0" t="s">
         <v>17</v>
@@ -6960,7 +6954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="4" t="s">
         <v>20</v>
       </c>
@@ -6974,7 +6968,7 @@
         <v>29</v>
       </c>
       <c r="E209" s="6" t="n">
-        <v>18570</v>
+        <v>18980</v>
       </c>
       <c r="F209" s="0" t="s">
         <v>17</v>
@@ -6992,7 +6986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="4" t="s">
         <v>20</v>
       </c>
@@ -7006,7 +7000,7 @@
         <v>34</v>
       </c>
       <c r="E210" s="6" t="n">
-        <v>20250</v>
+        <v>20710</v>
       </c>
       <c r="F210" s="0" t="s">
         <v>17</v>
@@ -7024,7 +7018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="4" t="s">
         <v>20</v>
       </c>
@@ -7038,7 +7032,7 @@
         <v>39</v>
       </c>
       <c r="E211" s="6" t="n">
-        <v>22490</v>
+        <v>23000</v>
       </c>
       <c r="F211" s="0" t="s">
         <v>17</v>
@@ -7056,7 +7050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="4" t="s">
         <v>20</v>
       </c>
@@ -7070,7 +7064,7 @@
         <v>44</v>
       </c>
       <c r="E212" s="6" t="n">
-        <v>23170</v>
+        <v>23680</v>
       </c>
       <c r="F212" s="0" t="s">
         <v>17</v>
@@ -7088,7 +7082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="4" t="s">
         <v>20</v>
       </c>
@@ -7102,7 +7096,7 @@
         <v>49</v>
       </c>
       <c r="E213" s="6" t="n">
-        <v>24790</v>
+        <v>25360</v>
       </c>
       <c r="F213" s="0" t="s">
         <v>17</v>
@@ -7120,7 +7114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="4" t="s">
         <v>20</v>
       </c>
@@ -7134,7 +7128,7 @@
         <v>54</v>
       </c>
       <c r="E214" s="6" t="n">
-        <v>29350</v>
+        <v>30010</v>
       </c>
       <c r="F214" s="0" t="s">
         <v>17</v>
@@ -7152,7 +7146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="4" t="s">
         <v>20</v>
       </c>
@@ -7166,7 +7160,7 @@
         <v>59</v>
       </c>
       <c r="E215" s="6" t="n">
-        <v>31410</v>
+        <v>32120</v>
       </c>
       <c r="F215" s="0" t="s">
         <v>17</v>
@@ -7184,7 +7178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="4" t="s">
         <v>20</v>
       </c>
@@ -7198,7 +7192,7 @@
         <v>64</v>
       </c>
       <c r="E216" s="6" t="n">
-        <v>37450</v>
+        <v>38290</v>
       </c>
       <c r="F216" s="0" t="s">
         <v>17</v>
@@ -7216,7 +7210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="4" t="s">
         <v>20</v>
       </c>
@@ -7230,7 +7224,7 @@
         <v>99</v>
       </c>
       <c r="E217" s="6" t="n">
-        <v>69690</v>
+        <v>71410</v>
       </c>
       <c r="F217" s="0" t="s">
         <v>17</v>
@@ -7248,7 +7242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="4" t="s">
         <v>21</v>
       </c>
@@ -7262,7 +7256,7 @@
         <v>14</v>
       </c>
       <c r="E218" s="6" t="n">
-        <v>13220</v>
+        <v>13510</v>
       </c>
       <c r="F218" s="0" t="s">
         <v>12</v>
@@ -7280,7 +7274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="4" t="s">
         <v>21</v>
       </c>
@@ -7294,7 +7288,7 @@
         <v>19</v>
       </c>
       <c r="E219" s="6" t="n">
-        <v>14060</v>
+        <v>14350</v>
       </c>
       <c r="F219" s="0" t="s">
         <v>12</v>
@@ -7312,7 +7306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="4" t="s">
         <v>21</v>
       </c>
@@ -7326,7 +7320,7 @@
         <v>24</v>
       </c>
       <c r="E220" s="6" t="n">
-        <v>14830</v>
+        <v>15150</v>
       </c>
       <c r="F220" s="0" t="s">
         <v>12</v>
@@ -7344,7 +7338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="4" t="s">
         <v>21</v>
       </c>
@@ -7358,7 +7352,7 @@
         <v>29</v>
       </c>
       <c r="E221" s="6" t="n">
-        <v>15840</v>
+        <v>16180</v>
       </c>
       <c r="F221" s="0" t="s">
         <v>12</v>
@@ -7376,7 +7370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="4" t="s">
         <v>21</v>
       </c>
@@ -7390,7 +7384,7 @@
         <v>34</v>
       </c>
       <c r="E222" s="6" t="n">
-        <v>16650</v>
+        <v>17010</v>
       </c>
       <c r="F222" s="0" t="s">
         <v>12</v>
@@ -7408,7 +7402,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="4" t="s">
         <v>21</v>
       </c>
@@ -7422,7 +7416,7 @@
         <v>39</v>
       </c>
       <c r="E223" s="6" t="n">
-        <v>19180</v>
+        <v>19590</v>
       </c>
       <c r="F223" s="0" t="s">
         <v>12</v>
@@ -7440,7 +7434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="4" t="s">
         <v>21</v>
       </c>
@@ -7454,7 +7448,7 @@
         <v>44</v>
       </c>
       <c r="E224" s="6" t="n">
-        <v>20510</v>
+        <v>20950</v>
       </c>
       <c r="F224" s="0" t="s">
         <v>12</v>
@@ -7472,7 +7466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="4" t="s">
         <v>21</v>
       </c>
@@ -7486,7 +7480,7 @@
         <v>49</v>
       </c>
       <c r="E225" s="6" t="n">
-        <v>24900</v>
+        <v>25430</v>
       </c>
       <c r="F225" s="0" t="s">
         <v>12</v>
@@ -7504,7 +7498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="4" t="s">
         <v>21</v>
       </c>
@@ -7518,7 +7512,7 @@
         <v>54</v>
       </c>
       <c r="E226" s="6" t="n">
-        <v>30260</v>
+        <v>30900</v>
       </c>
       <c r="F226" s="0" t="s">
         <v>12</v>
@@ -7536,7 +7530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="4" t="s">
         <v>21</v>
       </c>
@@ -7550,7 +7544,7 @@
         <v>59</v>
       </c>
       <c r="E227" s="6" t="n">
-        <v>32350</v>
+        <v>33040</v>
       </c>
       <c r="F227" s="0" t="s">
         <v>12</v>
@@ -7568,7 +7562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="4" t="s">
         <v>21</v>
       </c>
@@ -7582,7 +7576,7 @@
         <v>64</v>
       </c>
       <c r="E228" s="6" t="n">
-        <v>38580</v>
+        <v>39400</v>
       </c>
       <c r="F228" s="0" t="s">
         <v>12</v>
@@ -7600,7 +7594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="4" t="s">
         <v>21</v>
       </c>
@@ -7614,7 +7608,7 @@
         <v>99</v>
       </c>
       <c r="E229" s="6" t="n">
-        <v>71060</v>
+        <v>72750</v>
       </c>
       <c r="F229" s="0" t="s">
         <v>12</v>
@@ -7632,7 +7626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="4" t="s">
         <v>21</v>
       </c>
@@ -7646,7 +7640,7 @@
         <v>14</v>
       </c>
       <c r="E230" s="6" t="n">
-        <v>13220</v>
+        <v>13510</v>
       </c>
       <c r="F230" s="0" t="s">
         <v>17</v>
@@ -7664,7 +7658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="4" t="s">
         <v>21</v>
       </c>
@@ -7678,7 +7672,7 @@
         <v>19</v>
       </c>
       <c r="E231" s="6" t="n">
-        <v>14060</v>
+        <v>14350</v>
       </c>
       <c r="F231" s="0" t="s">
         <v>17</v>
@@ -7696,7 +7690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="4" t="s">
         <v>21</v>
       </c>
@@ -7710,7 +7704,7 @@
         <v>24</v>
       </c>
       <c r="E232" s="6" t="n">
-        <v>16570</v>
+        <v>16910</v>
       </c>
       <c r="F232" s="0" t="s">
         <v>17</v>
@@ -7728,7 +7722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="4" t="s">
         <v>21</v>
       </c>
@@ -7742,7 +7736,7 @@
         <v>29</v>
       </c>
       <c r="E233" s="6" t="n">
-        <v>19040</v>
+        <v>19450</v>
       </c>
       <c r="F233" s="0" t="s">
         <v>17</v>
@@ -7760,7 +7754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="4" t="s">
         <v>21</v>
       </c>
@@ -7774,7 +7768,7 @@
         <v>34</v>
       </c>
       <c r="E234" s="6" t="n">
-        <v>20740</v>
+        <v>21190</v>
       </c>
       <c r="F234" s="0" t="s">
         <v>17</v>
@@ -7792,7 +7786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="4" t="s">
         <v>21</v>
       </c>
@@ -7806,7 +7800,7 @@
         <v>39</v>
       </c>
       <c r="E235" s="6" t="n">
-        <v>23070</v>
+        <v>23560</v>
       </c>
       <c r="F235" s="0" t="s">
         <v>17</v>
@@ -7824,7 +7818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="4" t="s">
         <v>21</v>
       </c>
@@ -7838,7 +7832,7 @@
         <v>44</v>
       </c>
       <c r="E236" s="6" t="n">
-        <v>23780</v>
+        <v>24280</v>
       </c>
       <c r="F236" s="0" t="s">
         <v>17</v>
@@ -7856,7 +7850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="4" t="s">
         <v>21</v>
       </c>
@@ -7870,7 +7864,7 @@
         <v>49</v>
       </c>
       <c r="E237" s="6" t="n">
-        <v>25540</v>
+        <v>26090</v>
       </c>
       <c r="F237" s="0" t="s">
         <v>17</v>
@@ -7888,7 +7882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="4" t="s">
         <v>21</v>
       </c>
@@ -7902,7 +7896,7 @@
         <v>54</v>
       </c>
       <c r="E238" s="6" t="n">
-        <v>30260</v>
+        <v>30900</v>
       </c>
       <c r="F238" s="0" t="s">
         <v>17</v>
@@ -7920,7 +7914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="4" t="s">
         <v>21</v>
       </c>
@@ -7934,7 +7928,7 @@
         <v>59</v>
       </c>
       <c r="E239" s="6" t="n">
-        <v>32350</v>
+        <v>33040</v>
       </c>
       <c r="F239" s="0" t="s">
         <v>17</v>
@@ -7952,7 +7946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="4" t="s">
         <v>21</v>
       </c>
@@ -7966,7 +7960,7 @@
         <v>64</v>
       </c>
       <c r="E240" s="6" t="n">
-        <v>38580</v>
+        <v>39400</v>
       </c>
       <c r="F240" s="0" t="s">
         <v>17</v>
@@ -7984,7 +7978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="4" t="s">
         <v>21</v>
       </c>
@@ -7998,7 +7992,7 @@
         <v>99</v>
       </c>
       <c r="E241" s="6" t="n">
-        <v>71060</v>
+        <v>72750</v>
       </c>
       <c r="F241" s="0" t="s">
         <v>17</v>
@@ -8020,7 +8014,7 @@
       <c r="A242" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B242" s="7" t="s">
+      <c r="B242" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C242" s="0" t="n">
@@ -8030,7 +8024,7 @@
         <v>14</v>
       </c>
       <c r="E242" s="6" t="n">
-        <v>14660</v>
+        <v>16480</v>
       </c>
       <c r="F242" s="0" t="s">
         <v>12</v>
@@ -8052,7 +8046,7 @@
       <c r="A243" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B243" s="7" t="s">
+      <c r="B243" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C243" s="0" t="n">
@@ -8062,7 +8056,7 @@
         <v>19</v>
       </c>
       <c r="E243" s="6" t="n">
-        <v>15480</v>
+        <v>17400</v>
       </c>
       <c r="F243" s="0" t="s">
         <v>12</v>
@@ -8084,7 +8078,7 @@
       <c r="A244" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B244" s="7" t="s">
+      <c r="B244" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C244" s="0" t="n">
@@ -8094,7 +8088,7 @@
         <v>24</v>
       </c>
       <c r="E244" s="6" t="n">
-        <v>16370</v>
+        <v>18410</v>
       </c>
       <c r="F244" s="0" t="s">
         <v>12</v>
@@ -8116,7 +8110,7 @@
       <c r="A245" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B245" s="7" t="s">
+      <c r="B245" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C245" s="0" t="n">
@@ -8126,7 +8120,7 @@
         <v>29</v>
       </c>
       <c r="E245" s="6" t="n">
-        <v>17470</v>
+        <v>19640</v>
       </c>
       <c r="F245" s="0" t="s">
         <v>12</v>
@@ -8148,7 +8142,7 @@
       <c r="A246" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B246" s="7" t="s">
+      <c r="B246" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C246" s="0" t="n">
@@ -8158,7 +8152,7 @@
         <v>34</v>
       </c>
       <c r="E246" s="6" t="n">
-        <v>18420</v>
+        <v>20710</v>
       </c>
       <c r="F246" s="0" t="s">
         <v>12</v>
@@ -8180,7 +8174,7 @@
       <c r="A247" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B247" s="7" t="s">
+      <c r="B247" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C247" s="0" t="n">
@@ -8190,7 +8184,7 @@
         <v>39</v>
       </c>
       <c r="E247" s="6" t="n">
-        <v>21080</v>
+        <v>23700</v>
       </c>
       <c r="F247" s="0" t="s">
         <v>12</v>
@@ -8212,7 +8206,7 @@
       <c r="A248" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B248" s="7" t="s">
+      <c r="B248" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C248" s="0" t="n">
@@ -8222,7 +8216,7 @@
         <v>44</v>
       </c>
       <c r="E248" s="6" t="n">
-        <v>22630</v>
+        <v>25440</v>
       </c>
       <c r="F248" s="0" t="s">
         <v>12</v>
@@ -8244,7 +8238,7 @@
       <c r="A249" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B249" s="7" t="s">
+      <c r="B249" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C249" s="0" t="n">
@@ -8254,7 +8248,7 @@
         <v>49</v>
       </c>
       <c r="E249" s="6" t="n">
-        <v>27420</v>
+        <v>30830</v>
       </c>
       <c r="F249" s="0" t="s">
         <v>12</v>
@@ -8276,7 +8270,7 @@
       <c r="A250" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B250" s="7" t="s">
+      <c r="B250" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C250" s="0" t="n">
@@ -8286,7 +8280,7 @@
         <v>54</v>
       </c>
       <c r="E250" s="6" t="n">
-        <v>33330</v>
+        <v>37470</v>
       </c>
       <c r="F250" s="0" t="s">
         <v>12</v>
@@ -8308,7 +8302,7 @@
       <c r="A251" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B251" s="7" t="s">
+      <c r="B251" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C251" s="0" t="n">
@@ -8318,7 +8312,7 @@
         <v>59</v>
       </c>
       <c r="E251" s="6" t="n">
-        <v>35740</v>
+        <v>40180</v>
       </c>
       <c r="F251" s="0" t="s">
         <v>12</v>
@@ -8340,7 +8334,7 @@
       <c r="A252" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B252" s="7" t="s">
+      <c r="B252" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C252" s="0" t="n">
@@ -8350,7 +8344,7 @@
         <v>64</v>
       </c>
       <c r="E252" s="6" t="n">
-        <v>42610</v>
+        <v>47910</v>
       </c>
       <c r="F252" s="0" t="s">
         <v>12</v>
@@ -8372,7 +8366,7 @@
       <c r="A253" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B253" s="7" t="s">
+      <c r="B253" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C253" s="0" t="n">
@@ -8382,7 +8376,7 @@
         <v>99</v>
       </c>
       <c r="E253" s="6" t="n">
-        <v>82870</v>
+        <v>93190</v>
       </c>
       <c r="F253" s="0" t="s">
         <v>12</v>
@@ -8404,7 +8398,7 @@
       <c r="A254" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B254" s="7" t="s">
+      <c r="B254" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C254" s="0" t="n">
@@ -8414,7 +8408,7 @@
         <v>14</v>
       </c>
       <c r="E254" s="6" t="n">
-        <v>14660</v>
+        <v>16480</v>
       </c>
       <c r="F254" s="0" t="s">
         <v>17</v>
@@ -8436,7 +8430,7 @@
       <c r="A255" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B255" s="7" t="s">
+      <c r="B255" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C255" s="0" t="n">
@@ -8446,7 +8440,7 @@
         <v>19</v>
       </c>
       <c r="E255" s="6" t="n">
-        <v>15480</v>
+        <v>17400</v>
       </c>
       <c r="F255" s="0" t="s">
         <v>17</v>
@@ -8468,7 +8462,7 @@
       <c r="A256" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B256" s="7" t="s">
+      <c r="B256" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C256" s="0" t="n">
@@ -8478,7 +8472,7 @@
         <v>24</v>
       </c>
       <c r="E256" s="6" t="n">
-        <v>17990</v>
+        <v>20230</v>
       </c>
       <c r="F256" s="0" t="s">
         <v>17</v>
@@ -8500,7 +8494,7 @@
       <c r="A257" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B257" s="7" t="s">
+      <c r="B257" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C257" s="0" t="n">
@@ -8510,7 +8504,7 @@
         <v>29</v>
       </c>
       <c r="E257" s="6" t="n">
-        <v>20940</v>
+        <v>23550</v>
       </c>
       <c r="F257" s="0" t="s">
         <v>17</v>
@@ -8532,7 +8526,7 @@
       <c r="A258" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B258" s="7" t="s">
+      <c r="B258" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C258" s="0" t="n">
@@ -8542,7 +8536,7 @@
         <v>34</v>
       </c>
       <c r="E258" s="6" t="n">
-        <v>23000</v>
+        <v>25860</v>
       </c>
       <c r="F258" s="0" t="s">
         <v>17</v>
@@ -8564,7 +8558,7 @@
       <c r="A259" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B259" s="7" t="s">
+      <c r="B259" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C259" s="0" t="n">
@@ -8574,7 +8568,7 @@
         <v>39</v>
       </c>
       <c r="E259" s="6" t="n">
-        <v>25270</v>
+        <v>28410</v>
       </c>
       <c r="F259" s="0" t="s">
         <v>17</v>
@@ -8596,7 +8590,7 @@
       <c r="A260" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B260" s="7" t="s">
+      <c r="B260" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C260" s="0" t="n">
@@ -8606,7 +8600,7 @@
         <v>44</v>
       </c>
       <c r="E260" s="6" t="n">
-        <v>26000</v>
+        <v>29230</v>
       </c>
       <c r="F260" s="0" t="s">
         <v>17</v>
@@ -8628,7 +8622,7 @@
       <c r="A261" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B261" s="7" t="s">
+      <c r="B261" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C261" s="0" t="n">
@@ -8638,7 +8632,7 @@
         <v>49</v>
       </c>
       <c r="E261" s="6" t="n">
-        <v>28240</v>
+        <v>31750</v>
       </c>
       <c r="F261" s="0" t="s">
         <v>17</v>
@@ -8660,7 +8654,7 @@
       <c r="A262" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B262" s="7" t="s">
+      <c r="B262" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C262" s="0" t="n">
@@ -8670,7 +8664,7 @@
         <v>54</v>
       </c>
       <c r="E262" s="6" t="n">
-        <v>33330</v>
+        <v>37470</v>
       </c>
       <c r="F262" s="0" t="s">
         <v>17</v>
@@ -8692,7 +8686,7 @@
       <c r="A263" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B263" s="7" t="s">
+      <c r="B263" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C263" s="0" t="n">
@@ -8702,7 +8696,7 @@
         <v>59</v>
       </c>
       <c r="E263" s="6" t="n">
-        <v>35740</v>
+        <v>40180</v>
       </c>
       <c r="F263" s="0" t="s">
         <v>17</v>
@@ -8724,7 +8718,7 @@
       <c r="A264" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B264" s="7" t="s">
+      <c r="B264" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C264" s="0" t="n">
@@ -8734,7 +8728,7 @@
         <v>64</v>
       </c>
       <c r="E264" s="6" t="n">
-        <v>42610</v>
+        <v>47910</v>
       </c>
       <c r="F264" s="0" t="s">
         <v>17</v>
@@ -8756,7 +8750,7 @@
       <c r="A265" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B265" s="7" t="s">
+      <c r="B265" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C265" s="0" t="n">
@@ -8766,7 +8760,7 @@
         <v>99</v>
       </c>
       <c r="E265" s="6" t="n">
-        <v>82870</v>
+        <v>93190</v>
       </c>
       <c r="F265" s="0" t="s">
         <v>17</v>
@@ -8788,7 +8782,7 @@
       <c r="A266" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B266" s="7" t="s">
+      <c r="B266" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C266" s="0" t="n">
@@ -8798,7 +8792,7 @@
         <v>14</v>
       </c>
       <c r="E266" s="6" t="n">
-        <v>15700</v>
+        <v>17520</v>
       </c>
       <c r="F266" s="0" t="s">
         <v>12</v>
@@ -8820,7 +8814,7 @@
       <c r="A267" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B267" s="7" t="s">
+      <c r="B267" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C267" s="0" t="n">
@@ -8830,7 +8824,7 @@
         <v>19</v>
       </c>
       <c r="E267" s="6" t="n">
-        <v>16620</v>
+        <v>18540</v>
       </c>
       <c r="F267" s="0" t="s">
         <v>12</v>
@@ -8852,7 +8846,7 @@
       <c r="A268" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B268" s="7" t="s">
+      <c r="B268" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C268" s="0" t="n">
@@ -8862,7 +8856,7 @@
         <v>24</v>
       </c>
       <c r="E268" s="6" t="n">
-        <v>17580</v>
+        <v>19620</v>
       </c>
       <c r="F268" s="0" t="s">
         <v>12</v>
@@ -8884,7 +8878,7 @@
       <c r="A269" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B269" s="7" t="s">
+      <c r="B269" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C269" s="0" t="n">
@@ -8894,7 +8888,7 @@
         <v>29</v>
       </c>
       <c r="E269" s="6" t="n">
-        <v>18750</v>
+        <v>20920</v>
       </c>
       <c r="F269" s="0" t="s">
         <v>12</v>
@@ -8916,7 +8910,7 @@
       <c r="A270" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B270" s="7" t="s">
+      <c r="B270" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C270" s="0" t="n">
@@ -8926,7 +8920,7 @@
         <v>34</v>
       </c>
       <c r="E270" s="6" t="n">
-        <v>19780</v>
+        <v>22070</v>
       </c>
       <c r="F270" s="0" t="s">
         <v>12</v>
@@ -8948,7 +8942,7 @@
       <c r="A271" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B271" s="7" t="s">
+      <c r="B271" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C271" s="0" t="n">
@@ -8958,7 +8952,7 @@
         <v>39</v>
       </c>
       <c r="E271" s="6" t="n">
-        <v>22670</v>
+        <v>25290</v>
       </c>
       <c r="F271" s="0" t="s">
         <v>12</v>
@@ -8980,7 +8974,7 @@
       <c r="A272" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B272" s="7" t="s">
+      <c r="B272" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C272" s="0" t="n">
@@ -8990,7 +8984,7 @@
         <v>44</v>
       </c>
       <c r="E272" s="6" t="n">
-        <v>24340</v>
+        <v>27150</v>
       </c>
       <c r="F272" s="0" t="s">
         <v>12</v>
@@ -9012,7 +9006,7 @@
       <c r="A273" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B273" s="7" t="s">
+      <c r="B273" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C273" s="0" t="n">
@@ -9022,7 +9016,7 @@
         <v>49</v>
       </c>
       <c r="E273" s="6" t="n">
-        <v>29520</v>
+        <v>32930</v>
       </c>
       <c r="F273" s="0" t="s">
         <v>12</v>
@@ -9044,7 +9038,7 @@
       <c r="A274" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B274" s="7" t="s">
+      <c r="B274" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C274" s="0" t="n">
@@ -9054,7 +9048,7 @@
         <v>54</v>
       </c>
       <c r="E274" s="6" t="n">
-        <v>35890</v>
+        <v>40030</v>
       </c>
       <c r="F274" s="0" t="s">
         <v>12</v>
@@ -9076,7 +9070,7 @@
       <c r="A275" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B275" s="7" t="s">
+      <c r="B275" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C275" s="0" t="n">
@@ -9086,7 +9080,7 @@
         <v>59</v>
       </c>
       <c r="E275" s="6" t="n">
-        <v>38410</v>
+        <v>42850</v>
       </c>
       <c r="F275" s="0" t="s">
         <v>12</v>
@@ -9108,7 +9102,7 @@
       <c r="A276" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B276" s="7" t="s">
+      <c r="B276" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C276" s="0" t="n">
@@ -9118,7 +9112,7 @@
         <v>64</v>
       </c>
       <c r="E276" s="6" t="n">
-        <v>45800</v>
+        <v>51100</v>
       </c>
       <c r="F276" s="0" t="s">
         <v>12</v>
@@ -9140,7 +9134,7 @@
       <c r="A277" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B277" s="7" t="s">
+      <c r="B277" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C277" s="0" t="n">
@@ -9150,7 +9144,7 @@
         <v>99</v>
       </c>
       <c r="E277" s="6" t="n">
-        <v>86750</v>
+        <v>97070</v>
       </c>
       <c r="F277" s="0" t="s">
         <v>12</v>
@@ -9172,7 +9166,7 @@
       <c r="A278" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B278" s="7" t="s">
+      <c r="B278" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C278" s="0" t="n">
@@ -9182,7 +9176,7 @@
         <v>14</v>
       </c>
       <c r="E278" s="6" t="n">
-        <v>15700</v>
+        <v>17520</v>
       </c>
       <c r="F278" s="0" t="s">
         <v>17</v>
@@ -9204,7 +9198,7 @@
       <c r="A279" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B279" s="7" t="s">
+      <c r="B279" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C279" s="0" t="n">
@@ -9214,7 +9208,7 @@
         <v>19</v>
       </c>
       <c r="E279" s="6" t="n">
-        <v>16620</v>
+        <v>18540</v>
       </c>
       <c r="F279" s="0" t="s">
         <v>17</v>
@@ -9236,7 +9230,7 @@
       <c r="A280" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B280" s="7" t="s">
+      <c r="B280" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C280" s="0" t="n">
@@ -9246,7 +9240,7 @@
         <v>24</v>
       </c>
       <c r="E280" s="6" t="n">
-        <v>19200</v>
+        <v>21440</v>
       </c>
       <c r="F280" s="0" t="s">
         <v>17</v>
@@ -9268,7 +9262,7 @@
       <c r="A281" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B281" s="7" t="s">
+      <c r="B281" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C281" s="0" t="n">
@@ -9278,7 +9272,7 @@
         <v>29</v>
       </c>
       <c r="E281" s="6" t="n">
-        <v>22220</v>
+        <v>24830</v>
       </c>
       <c r="F281" s="0" t="s">
         <v>17</v>
@@ -9300,7 +9294,7 @@
       <c r="A282" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B282" s="7" t="s">
+      <c r="B282" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C282" s="0" t="n">
@@ -9310,7 +9304,7 @@
         <v>34</v>
       </c>
       <c r="E282" s="6" t="n">
-        <v>24360</v>
+        <v>27220</v>
       </c>
       <c r="F282" s="0" t="s">
         <v>17</v>
@@ -9332,7 +9326,7 @@
       <c r="A283" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B283" s="7" t="s">
+      <c r="B283" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C283" s="0" t="n">
@@ -9342,7 +9336,7 @@
         <v>39</v>
       </c>
       <c r="E283" s="6" t="n">
-        <v>26860</v>
+        <v>30000</v>
       </c>
       <c r="F283" s="0" t="s">
         <v>17</v>
@@ -9364,7 +9358,7 @@
       <c r="A284" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B284" s="7" t="s">
+      <c r="B284" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C284" s="0" t="n">
@@ -9374,7 +9368,7 @@
         <v>44</v>
       </c>
       <c r="E284" s="6" t="n">
-        <v>27710</v>
+        <v>30940</v>
       </c>
       <c r="F284" s="0" t="s">
         <v>17</v>
@@ -9396,7 +9390,7 @@
       <c r="A285" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B285" s="7" t="s">
+      <c r="B285" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C285" s="0" t="n">
@@ -9406,7 +9400,7 @@
         <v>49</v>
       </c>
       <c r="E285" s="6" t="n">
-        <v>30340</v>
+        <v>33850</v>
       </c>
       <c r="F285" s="0" t="s">
         <v>17</v>
@@ -9428,7 +9422,7 @@
       <c r="A286" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B286" s="7" t="s">
+      <c r="B286" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C286" s="0" t="n">
@@ -9438,7 +9432,7 @@
         <v>54</v>
       </c>
       <c r="E286" s="6" t="n">
-        <v>35890</v>
+        <v>40030</v>
       </c>
       <c r="F286" s="0" t="s">
         <v>17</v>
@@ -9460,7 +9454,7 @@
       <c r="A287" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B287" s="7" t="s">
+      <c r="B287" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C287" s="0" t="n">
@@ -9470,7 +9464,7 @@
         <v>59</v>
       </c>
       <c r="E287" s="6" t="n">
-        <v>38410</v>
+        <v>42850</v>
       </c>
       <c r="F287" s="0" t="s">
         <v>17</v>
@@ -9492,7 +9486,7 @@
       <c r="A288" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B288" s="7" t="s">
+      <c r="B288" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C288" s="0" t="n">
@@ -9502,7 +9496,7 @@
         <v>64</v>
       </c>
       <c r="E288" s="6" t="n">
-        <v>45800</v>
+        <v>51100</v>
       </c>
       <c r="F288" s="0" t="s">
         <v>17</v>
@@ -9524,7 +9518,7 @@
       <c r="A289" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B289" s="7" t="s">
+      <c r="B289" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C289" s="0" t="n">
@@ -9534,7 +9528,7 @@
         <v>99</v>
       </c>
       <c r="E289" s="6" t="n">
-        <v>86750</v>
+        <v>97070</v>
       </c>
       <c r="F289" s="0" t="s">
         <v>17</v>
@@ -9556,7 +9550,7 @@
       <c r="A290" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B290" s="7" t="s">
+      <c r="B290" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C290" s="0" t="n">
@@ -9566,7 +9560,7 @@
         <v>14</v>
       </c>
       <c r="E290" s="6" t="n">
-        <v>15700</v>
+        <v>17520</v>
       </c>
       <c r="F290" s="0" t="s">
         <v>12</v>
@@ -9588,7 +9582,7 @@
       <c r="A291" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B291" s="7" t="s">
+      <c r="B291" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C291" s="0" t="n">
@@ -9598,7 +9592,7 @@
         <v>19</v>
       </c>
       <c r="E291" s="6" t="n">
-        <v>16620</v>
+        <v>18540</v>
       </c>
       <c r="F291" s="0" t="s">
         <v>12</v>
@@ -9620,7 +9614,7 @@
       <c r="A292" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B292" s="7" t="s">
+      <c r="B292" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C292" s="0" t="n">
@@ -9630,7 +9624,7 @@
         <v>24</v>
       </c>
       <c r="E292" s="6" t="n">
-        <v>17580</v>
+        <v>19620</v>
       </c>
       <c r="F292" s="0" t="s">
         <v>12</v>
@@ -9652,7 +9646,7 @@
       <c r="A293" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B293" s="7" t="s">
+      <c r="B293" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C293" s="0" t="n">
@@ -9662,7 +9656,7 @@
         <v>29</v>
       </c>
       <c r="E293" s="6" t="n">
-        <v>18750</v>
+        <v>20920</v>
       </c>
       <c r="F293" s="0" t="s">
         <v>12</v>
@@ -9684,7 +9678,7 @@
       <c r="A294" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B294" s="7" t="s">
+      <c r="B294" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C294" s="0" t="n">
@@ -9694,7 +9688,7 @@
         <v>34</v>
       </c>
       <c r="E294" s="6" t="n">
-        <v>19780</v>
+        <v>22070</v>
       </c>
       <c r="F294" s="0" t="s">
         <v>12</v>
@@ -9716,7 +9710,7 @@
       <c r="A295" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B295" s="7" t="s">
+      <c r="B295" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C295" s="0" t="n">
@@ -9726,7 +9720,7 @@
         <v>39</v>
       </c>
       <c r="E295" s="6" t="n">
-        <v>22670</v>
+        <v>25290</v>
       </c>
       <c r="F295" s="0" t="s">
         <v>12</v>
@@ -9748,7 +9742,7 @@
       <c r="A296" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B296" s="7" t="s">
+      <c r="B296" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C296" s="0" t="n">
@@ -9758,7 +9752,7 @@
         <v>44</v>
       </c>
       <c r="E296" s="6" t="n">
-        <v>24340</v>
+        <v>27150</v>
       </c>
       <c r="F296" s="0" t="s">
         <v>12</v>
@@ -9780,7 +9774,7 @@
       <c r="A297" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B297" s="7" t="s">
+      <c r="B297" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C297" s="0" t="n">
@@ -9790,7 +9784,7 @@
         <v>49</v>
       </c>
       <c r="E297" s="6" t="n">
-        <v>29520</v>
+        <v>32930</v>
       </c>
       <c r="F297" s="0" t="s">
         <v>12</v>
@@ -9812,7 +9806,7 @@
       <c r="A298" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B298" s="7" t="s">
+      <c r="B298" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C298" s="0" t="n">
@@ -9822,7 +9816,7 @@
         <v>54</v>
       </c>
       <c r="E298" s="6" t="n">
-        <v>35890</v>
+        <v>40030</v>
       </c>
       <c r="F298" s="0" t="s">
         <v>12</v>
@@ -9844,7 +9838,7 @@
       <c r="A299" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B299" s="7" t="s">
+      <c r="B299" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C299" s="0" t="n">
@@ -9854,7 +9848,7 @@
         <v>59</v>
       </c>
       <c r="E299" s="6" t="n">
-        <v>38410</v>
+        <v>42850</v>
       </c>
       <c r="F299" s="0" t="s">
         <v>12</v>
@@ -9876,7 +9870,7 @@
       <c r="A300" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B300" s="7" t="s">
+      <c r="B300" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C300" s="0" t="n">
@@ -9886,7 +9880,7 @@
         <v>64</v>
       </c>
       <c r="E300" s="6" t="n">
-        <v>45800</v>
+        <v>51100</v>
       </c>
       <c r="F300" s="0" t="s">
         <v>12</v>
@@ -9908,7 +9902,7 @@
       <c r="A301" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B301" s="7" t="s">
+      <c r="B301" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C301" s="0" t="n">
@@ -9918,7 +9912,7 @@
         <v>99</v>
       </c>
       <c r="E301" s="6" t="n">
-        <v>86750</v>
+        <v>97070</v>
       </c>
       <c r="F301" s="0" t="s">
         <v>12</v>
@@ -9940,7 +9934,7 @@
       <c r="A302" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B302" s="7" t="s">
+      <c r="B302" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C302" s="0" t="n">
@@ -9950,7 +9944,7 @@
         <v>14</v>
       </c>
       <c r="E302" s="6" t="n">
-        <v>15700</v>
+        <v>17520</v>
       </c>
       <c r="F302" s="0" t="s">
         <v>17</v>
@@ -9972,7 +9966,7 @@
       <c r="A303" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B303" s="7" t="s">
+      <c r="B303" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C303" s="0" t="n">
@@ -9982,7 +9976,7 @@
         <v>19</v>
       </c>
       <c r="E303" s="6" t="n">
-        <v>16620</v>
+        <v>18540</v>
       </c>
       <c r="F303" s="0" t="s">
         <v>17</v>
@@ -10004,7 +9998,7 @@
       <c r="A304" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B304" s="7" t="s">
+      <c r="B304" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C304" s="0" t="n">
@@ -10014,7 +10008,7 @@
         <v>24</v>
       </c>
       <c r="E304" s="6" t="n">
-        <v>19770</v>
+        <v>22010</v>
       </c>
       <c r="F304" s="0" t="s">
         <v>17</v>
@@ -10036,7 +10030,7 @@
       <c r="A305" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B305" s="7" t="s">
+      <c r="B305" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C305" s="0" t="n">
@@ -10046,7 +10040,7 @@
         <v>29</v>
       </c>
       <c r="E305" s="6" t="n">
-        <v>22820</v>
+        <v>25430</v>
       </c>
       <c r="F305" s="0" t="s">
         <v>17</v>
@@ -10068,7 +10062,7 @@
       <c r="A306" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B306" s="7" t="s">
+      <c r="B306" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C306" s="0" t="n">
@@ -10078,7 +10072,7 @@
         <v>34</v>
       </c>
       <c r="E306" s="6" t="n">
-        <v>25010</v>
+        <v>27870</v>
       </c>
       <c r="F306" s="0" t="s">
         <v>17</v>
@@ -10100,7 +10094,7 @@
       <c r="A307" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B307" s="7" t="s">
+      <c r="B307" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C307" s="0" t="n">
@@ -10110,7 +10104,7 @@
         <v>39</v>
       </c>
       <c r="E307" s="6" t="n">
-        <v>27610</v>
+        <v>30750</v>
       </c>
       <c r="F307" s="0" t="s">
         <v>17</v>
@@ -10132,7 +10126,7 @@
       <c r="A308" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B308" s="7" t="s">
+      <c r="B308" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C308" s="0" t="n">
@@ -10142,7 +10136,7 @@
         <v>44</v>
       </c>
       <c r="E308" s="6" t="n">
-        <v>28510</v>
+        <v>31740</v>
       </c>
       <c r="F308" s="0" t="s">
         <v>17</v>
@@ -10164,7 +10158,7 @@
       <c r="A309" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B309" s="7" t="s">
+      <c r="B309" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C309" s="0" t="n">
@@ -10174,7 +10168,7 @@
         <v>49</v>
       </c>
       <c r="E309" s="6" t="n">
-        <v>30340</v>
+        <v>33850</v>
       </c>
       <c r="F309" s="0" t="s">
         <v>17</v>
@@ -10196,7 +10190,7 @@
       <c r="A310" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B310" s="7" t="s">
+      <c r="B310" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C310" s="0" t="n">
@@ -10206,7 +10200,7 @@
         <v>54</v>
       </c>
       <c r="E310" s="6" t="n">
-        <v>35890</v>
+        <v>40030</v>
       </c>
       <c r="F310" s="0" t="s">
         <v>17</v>
@@ -10228,7 +10222,7 @@
       <c r="A311" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B311" s="7" t="s">
+      <c r="B311" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C311" s="0" t="n">
@@ -10238,7 +10232,7 @@
         <v>59</v>
       </c>
       <c r="E311" s="6" t="n">
-        <v>38410</v>
+        <v>42850</v>
       </c>
       <c r="F311" s="0" t="s">
         <v>17</v>
@@ -10260,7 +10254,7 @@
       <c r="A312" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B312" s="7" t="s">
+      <c r="B312" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C312" s="0" t="n">
@@ -10270,7 +10264,7 @@
         <v>64</v>
       </c>
       <c r="E312" s="6" t="n">
-        <v>45800</v>
+        <v>51100</v>
       </c>
       <c r="F312" s="0" t="s">
         <v>17</v>
@@ -10292,7 +10286,7 @@
       <c r="A313" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B313" s="7" t="s">
+      <c r="B313" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C313" s="0" t="n">
@@ -10302,7 +10296,7 @@
         <v>99</v>
       </c>
       <c r="E313" s="6" t="n">
-        <v>86750</v>
+        <v>97070</v>
       </c>
       <c r="F313" s="0" t="s">
         <v>17</v>
@@ -10324,7 +10318,7 @@
       <c r="A314" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B314" s="7" t="s">
+      <c r="B314" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C314" s="0" t="n">
@@ -10334,7 +10328,7 @@
         <v>14</v>
       </c>
       <c r="E314" s="6" t="n">
-        <v>16370</v>
+        <v>18190</v>
       </c>
       <c r="F314" s="0" t="s">
         <v>12</v>
@@ -10356,7 +10350,7 @@
       <c r="A315" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B315" s="7" t="s">
+      <c r="B315" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C315" s="0" t="n">
@@ -10366,7 +10360,7 @@
         <v>19</v>
       </c>
       <c r="E315" s="6" t="n">
-        <v>17330</v>
+        <v>19250</v>
       </c>
       <c r="F315" s="0" t="s">
         <v>12</v>
@@ -10388,7 +10382,7 @@
       <c r="A316" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B316" s="7" t="s">
+      <c r="B316" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C316" s="0" t="n">
@@ -10398,7 +10392,7 @@
         <v>24</v>
       </c>
       <c r="E316" s="6" t="n">
-        <v>18340</v>
+        <v>20380</v>
       </c>
       <c r="F316" s="0" t="s">
         <v>12</v>
@@ -10420,7 +10414,7 @@
       <c r="A317" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B317" s="7" t="s">
+      <c r="B317" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C317" s="0" t="n">
@@ -10430,7 +10424,7 @@
         <v>29</v>
       </c>
       <c r="E317" s="6" t="n">
-        <v>19530</v>
+        <v>21700</v>
       </c>
       <c r="F317" s="0" t="s">
         <v>12</v>
@@ -10452,7 +10446,7 @@
       <c r="A318" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B318" s="7" t="s">
+      <c r="B318" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C318" s="0" t="n">
@@ -10462,7 +10456,7 @@
         <v>34</v>
       </c>
       <c r="E318" s="6" t="n">
-        <v>20620</v>
+        <v>22910</v>
       </c>
       <c r="F318" s="0" t="s">
         <v>12</v>
@@ -10484,7 +10478,7 @@
       <c r="A319" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B319" s="7" t="s">
+      <c r="B319" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C319" s="0" t="n">
@@ -10494,7 +10488,7 @@
         <v>39</v>
       </c>
       <c r="E319" s="6" t="n">
-        <v>23660</v>
+        <v>26280</v>
       </c>
       <c r="F319" s="0" t="s">
         <v>12</v>
@@ -10516,7 +10510,7 @@
       <c r="A320" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B320" s="7" t="s">
+      <c r="B320" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C320" s="0" t="n">
@@ -10526,7 +10520,7 @@
         <v>44</v>
       </c>
       <c r="E320" s="6" t="n">
-        <v>25410</v>
+        <v>28220</v>
       </c>
       <c r="F320" s="0" t="s">
         <v>12</v>
@@ -10548,7 +10542,7 @@
       <c r="A321" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B321" s="7" t="s">
+      <c r="B321" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C321" s="0" t="n">
@@ -10558,7 +10552,7 @@
         <v>49</v>
       </c>
       <c r="E321" s="6" t="n">
-        <v>30840</v>
+        <v>34250</v>
       </c>
       <c r="F321" s="0" t="s">
         <v>12</v>
@@ -10580,7 +10574,7 @@
       <c r="A322" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B322" s="7" t="s">
+      <c r="B322" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C322" s="0" t="n">
@@ -10590,7 +10584,7 @@
         <v>54</v>
       </c>
       <c r="E322" s="6" t="n">
-        <v>37510</v>
+        <v>41650</v>
       </c>
       <c r="F322" s="0" t="s">
         <v>12</v>
@@ -10612,7 +10606,7 @@
       <c r="A323" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B323" s="7" t="s">
+      <c r="B323" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C323" s="0" t="n">
@@ -10622,7 +10616,7 @@
         <v>59</v>
       </c>
       <c r="E323" s="6" t="n">
-        <v>40100</v>
+        <v>44540</v>
       </c>
       <c r="F323" s="0" t="s">
         <v>12</v>
@@ -10644,7 +10638,7 @@
       <c r="A324" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B324" s="7" t="s">
+      <c r="B324" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C324" s="0" t="n">
@@ -10654,7 +10648,7 @@
         <v>64</v>
       </c>
       <c r="E324" s="6" t="n">
-        <v>47830</v>
+        <v>53130</v>
       </c>
       <c r="F324" s="0" t="s">
         <v>12</v>
@@ -10676,7 +10670,7 @@
       <c r="A325" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B325" s="7" t="s">
+      <c r="B325" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C325" s="0" t="n">
@@ -10686,7 +10680,7 @@
         <v>99</v>
       </c>
       <c r="E325" s="6" t="n">
-        <v>89200</v>
+        <v>99520</v>
       </c>
       <c r="F325" s="0" t="s">
         <v>12</v>
@@ -10708,7 +10702,7 @@
       <c r="A326" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B326" s="7" t="s">
+      <c r="B326" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C326" s="0" t="n">
@@ -10718,7 +10712,7 @@
         <v>14</v>
       </c>
       <c r="E326" s="6" t="n">
-        <v>16370</v>
+        <v>18190</v>
       </c>
       <c r="F326" s="0" t="s">
         <v>17</v>
@@ -10740,7 +10734,7 @@
       <c r="A327" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B327" s="7" t="s">
+      <c r="B327" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C327" s="0" t="n">
@@ -10750,7 +10744,7 @@
         <v>19</v>
       </c>
       <c r="E327" s="6" t="n">
-        <v>17330</v>
+        <v>19250</v>
       </c>
       <c r="F327" s="0" t="s">
         <v>17</v>
@@ -10772,7 +10766,7 @@
       <c r="A328" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B328" s="7" t="s">
+      <c r="B328" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C328" s="0" t="n">
@@ -10782,7 +10776,7 @@
         <v>24</v>
       </c>
       <c r="E328" s="6" t="n">
-        <v>20530</v>
+        <v>22770</v>
       </c>
       <c r="F328" s="0" t="s">
         <v>17</v>
@@ -10804,7 +10798,7 @@
       <c r="A329" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B329" s="7" t="s">
+      <c r="B329" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C329" s="0" t="n">
@@ -10814,7 +10808,7 @@
         <v>29</v>
       </c>
       <c r="E329" s="6" t="n">
-        <v>23600</v>
+        <v>26210</v>
       </c>
       <c r="F329" s="0" t="s">
         <v>17</v>
@@ -10836,7 +10830,7 @@
       <c r="A330" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B330" s="7" t="s">
+      <c r="B330" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C330" s="0" t="n">
@@ -10846,7 +10840,7 @@
         <v>34</v>
       </c>
       <c r="E330" s="6" t="n">
-        <v>25850</v>
+        <v>28710</v>
       </c>
       <c r="F330" s="0" t="s">
         <v>17</v>
@@ -10868,7 +10862,7 @@
       <c r="A331" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B331" s="7" t="s">
+      <c r="B331" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C331" s="0" t="n">
@@ -10878,7 +10872,7 @@
         <v>39</v>
       </c>
       <c r="E331" s="6" t="n">
-        <v>28600</v>
+        <v>31740</v>
       </c>
       <c r="F331" s="0" t="s">
         <v>17</v>
@@ -10900,7 +10894,7 @@
       <c r="A332" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B332" s="7" t="s">
+      <c r="B332" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C332" s="0" t="n">
@@ -10910,7 +10904,7 @@
         <v>44</v>
       </c>
       <c r="E332" s="6" t="n">
-        <v>29580</v>
+        <v>32810</v>
       </c>
       <c r="F332" s="0" t="s">
         <v>17</v>
@@ -10932,7 +10926,7 @@
       <c r="A333" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B333" s="7" t="s">
+      <c r="B333" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C333" s="0" t="n">
@@ -10942,7 +10936,7 @@
         <v>49</v>
       </c>
       <c r="E333" s="6" t="n">
-        <v>31660</v>
+        <v>35170</v>
       </c>
       <c r="F333" s="0" t="s">
         <v>17</v>
@@ -10964,7 +10958,7 @@
       <c r="A334" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B334" s="7" t="s">
+      <c r="B334" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C334" s="0" t="n">
@@ -10974,7 +10968,7 @@
         <v>54</v>
       </c>
       <c r="E334" s="6" t="n">
-        <v>37510</v>
+        <v>41650</v>
       </c>
       <c r="F334" s="0" t="s">
         <v>17</v>
@@ -10996,7 +10990,7 @@
       <c r="A335" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B335" s="7" t="s">
+      <c r="B335" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C335" s="0" t="n">
@@ -11006,7 +11000,7 @@
         <v>59</v>
       </c>
       <c r="E335" s="6" t="n">
-        <v>40100</v>
+        <v>44540</v>
       </c>
       <c r="F335" s="0" t="s">
         <v>17</v>
@@ -11028,7 +11022,7 @@
       <c r="A336" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B336" s="7" t="s">
+      <c r="B336" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C336" s="0" t="n">
@@ -11038,7 +11032,7 @@
         <v>64</v>
       </c>
       <c r="E336" s="6" t="n">
-        <v>47830</v>
+        <v>53130</v>
       </c>
       <c r="F336" s="0" t="s">
         <v>17</v>
@@ -11060,7 +11054,7 @@
       <c r="A337" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B337" s="7" t="s">
+      <c r="B337" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C337" s="0" t="n">
@@ -11070,7 +11064,7 @@
         <v>99</v>
       </c>
       <c r="E337" s="6" t="n">
-        <v>89200</v>
+        <v>99520</v>
       </c>
       <c r="F337" s="0" t="s">
         <v>17</v>
@@ -11092,7 +11086,7 @@
       <c r="A338" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B338" s="7" t="s">
+      <c r="B338" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C338" s="0" t="n">
@@ -11102,7 +11096,7 @@
         <v>14</v>
       </c>
       <c r="E338" s="6" t="n">
-        <v>16830</v>
+        <v>18650</v>
       </c>
       <c r="F338" s="0" t="s">
         <v>12</v>
@@ -11124,7 +11118,7 @@
       <c r="A339" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B339" s="7" t="s">
+      <c r="B339" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C339" s="0" t="n">
@@ -11134,7 +11128,7 @@
         <v>19</v>
       </c>
       <c r="E339" s="6" t="n">
-        <v>17870</v>
+        <v>19790</v>
       </c>
       <c r="F339" s="0" t="s">
         <v>12</v>
@@ -11156,7 +11150,7 @@
       <c r="A340" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B340" s="7" t="s">
+      <c r="B340" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C340" s="0" t="n">
@@ -11166,7 +11160,7 @@
         <v>24</v>
       </c>
       <c r="E340" s="6" t="n">
-        <v>18900</v>
+        <v>20940</v>
       </c>
       <c r="F340" s="0" t="s">
         <v>12</v>
@@ -11188,7 +11182,7 @@
       <c r="A341" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B341" s="7" t="s">
+      <c r="B341" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C341" s="0" t="n">
@@ -11198,7 +11192,7 @@
         <v>29</v>
       </c>
       <c r="E341" s="6" t="n">
-        <v>20110</v>
+        <v>22280</v>
       </c>
       <c r="F341" s="0" t="s">
         <v>12</v>
@@ -11220,7 +11214,7 @@
       <c r="A342" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B342" s="7" t="s">
+      <c r="B342" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C342" s="0" t="n">
@@ -11230,7 +11224,7 @@
         <v>34</v>
       </c>
       <c r="E342" s="6" t="n">
-        <v>21220</v>
+        <v>23510</v>
       </c>
       <c r="F342" s="0" t="s">
         <v>12</v>
@@ -11252,7 +11246,7 @@
       <c r="A343" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B343" s="7" t="s">
+      <c r="B343" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C343" s="0" t="n">
@@ -11262,7 +11256,7 @@
         <v>39</v>
       </c>
       <c r="E343" s="6" t="n">
-        <v>24360</v>
+        <v>26980</v>
       </c>
       <c r="F343" s="0" t="s">
         <v>12</v>
@@ -11284,7 +11278,7 @@
       <c r="A344" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B344" s="7" t="s">
+      <c r="B344" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C344" s="0" t="n">
@@ -11294,7 +11288,7 @@
         <v>44</v>
       </c>
       <c r="E344" s="6" t="n">
-        <v>26170</v>
+        <v>28980</v>
       </c>
       <c r="F344" s="0" t="s">
         <v>12</v>
@@ -11316,7 +11310,7 @@
       <c r="A345" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B345" s="7" t="s">
+      <c r="B345" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C345" s="0" t="n">
@@ -11326,7 +11320,7 @@
         <v>49</v>
       </c>
       <c r="E345" s="6" t="n">
-        <v>31780</v>
+        <v>35190</v>
       </c>
       <c r="F345" s="0" t="s">
         <v>12</v>
@@ -11348,7 +11342,7 @@
       <c r="A346" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B346" s="7" t="s">
+      <c r="B346" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C346" s="0" t="n">
@@ -11358,7 +11352,7 @@
         <v>54</v>
       </c>
       <c r="E346" s="6" t="n">
-        <v>38650</v>
+        <v>42790</v>
       </c>
       <c r="F346" s="0" t="s">
         <v>12</v>
@@ -11380,7 +11374,7 @@
       <c r="A347" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B347" s="7" t="s">
+      <c r="B347" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C347" s="0" t="n">
@@ -11390,7 +11384,7 @@
         <v>59</v>
       </c>
       <c r="E347" s="6" t="n">
-        <v>41310</v>
+        <v>45750</v>
       </c>
       <c r="F347" s="0" t="s">
         <v>12</v>
@@ -11412,7 +11406,7 @@
       <c r="A348" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B348" s="7" t="s">
+      <c r="B348" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C348" s="0" t="n">
@@ -11422,7 +11416,7 @@
         <v>64</v>
       </c>
       <c r="E348" s="6" t="n">
-        <v>49280</v>
+        <v>54580</v>
       </c>
       <c r="F348" s="0" t="s">
         <v>12</v>
@@ -11444,7 +11438,7 @@
       <c r="A349" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B349" s="7" t="s">
+      <c r="B349" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C349" s="0" t="n">
@@ -11453,8 +11447,8 @@
       <c r="D349" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="E349" s="6" t="n">
-        <v>90960</v>
+      <c r="E349" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F349" s="0" t="s">
         <v>12</v>
@@ -11476,7 +11470,7 @@
       <c r="A350" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B350" s="7" t="s">
+      <c r="B350" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C350" s="0" t="n">
@@ -11486,7 +11480,7 @@
         <v>14</v>
       </c>
       <c r="E350" s="6" t="n">
-        <v>16830</v>
+        <v>18650</v>
       </c>
       <c r="F350" s="0" t="s">
         <v>17</v>
@@ -11508,7 +11502,7 @@
       <c r="A351" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B351" s="7" t="s">
+      <c r="B351" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C351" s="0" t="n">
@@ -11518,7 +11512,7 @@
         <v>19</v>
       </c>
       <c r="E351" s="6" t="n">
-        <v>17870</v>
+        <v>19790</v>
       </c>
       <c r="F351" s="0" t="s">
         <v>17</v>
@@ -11540,7 +11534,7 @@
       <c r="A352" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B352" s="7" t="s">
+      <c r="B352" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C352" s="0" t="n">
@@ -11550,7 +11544,7 @@
         <v>24</v>
       </c>
       <c r="E352" s="6" t="n">
-        <v>21090</v>
+        <v>23330</v>
       </c>
       <c r="F352" s="0" t="s">
         <v>17</v>
@@ -11572,7 +11566,7 @@
       <c r="A353" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B353" s="7" t="s">
+      <c r="B353" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C353" s="0" t="n">
@@ -11582,7 +11576,7 @@
         <v>29</v>
       </c>
       <c r="E353" s="6" t="n">
-        <v>24180</v>
+        <v>26790</v>
       </c>
       <c r="F353" s="0" t="s">
         <v>17</v>
@@ -11604,7 +11598,7 @@
       <c r="A354" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B354" s="7" t="s">
+      <c r="B354" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C354" s="0" t="n">
@@ -11614,7 +11608,7 @@
         <v>34</v>
       </c>
       <c r="E354" s="6" t="n">
-        <v>26450</v>
+        <v>29310</v>
       </c>
       <c r="F354" s="0" t="s">
         <v>17</v>
@@ -11636,7 +11630,7 @@
       <c r="A355" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B355" s="7" t="s">
+      <c r="B355" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C355" s="0" t="n">
@@ -11646,7 +11640,7 @@
         <v>39</v>
       </c>
       <c r="E355" s="6" t="n">
-        <v>29300</v>
+        <v>32440</v>
       </c>
       <c r="F355" s="0" t="s">
         <v>17</v>
@@ -11668,7 +11662,7 @@
       <c r="A356" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B356" s="7" t="s">
+      <c r="B356" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C356" s="0" t="n">
@@ -11678,7 +11672,7 @@
         <v>44</v>
       </c>
       <c r="E356" s="6" t="n">
-        <v>30340</v>
+        <v>33570</v>
       </c>
       <c r="F356" s="0" t="s">
         <v>17</v>
@@ -11700,7 +11694,7 @@
       <c r="A357" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B357" s="7" t="s">
+      <c r="B357" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C357" s="0" t="n">
@@ -11710,7 +11704,7 @@
         <v>49</v>
       </c>
       <c r="E357" s="6" t="n">
-        <v>32600</v>
+        <v>36110</v>
       </c>
       <c r="F357" s="0" t="s">
         <v>17</v>
@@ -11732,7 +11726,7 @@
       <c r="A358" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B358" s="7" t="s">
+      <c r="B358" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C358" s="0" t="n">
@@ -11742,7 +11736,7 @@
         <v>54</v>
       </c>
       <c r="E358" s="6" t="n">
-        <v>38650</v>
+        <v>42790</v>
       </c>
       <c r="F358" s="0" t="s">
         <v>17</v>
@@ -11764,7 +11758,7 @@
       <c r="A359" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B359" s="7" t="s">
+      <c r="B359" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C359" s="0" t="n">
@@ -11774,7 +11768,7 @@
         <v>59</v>
       </c>
       <c r="E359" s="6" t="n">
-        <v>41310</v>
+        <v>45750</v>
       </c>
       <c r="F359" s="0" t="s">
         <v>17</v>
@@ -11796,7 +11790,7 @@
       <c r="A360" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B360" s="7" t="s">
+      <c r="B360" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C360" s="0" t="n">
@@ -11806,7 +11800,7 @@
         <v>64</v>
       </c>
       <c r="E360" s="6" t="n">
-        <v>49280</v>
+        <v>54580</v>
       </c>
       <c r="F360" s="0" t="s">
         <v>17</v>
@@ -11828,7 +11822,7 @@
       <c r="A361" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B361" s="7" t="s">
+      <c r="B361" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C361" s="0" t="n">
@@ -11837,8 +11831,8 @@
       <c r="D361" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="E361" s="6" t="n">
-        <v>90960</v>
+      <c r="E361" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F361" s="0" t="s">
         <v>17</v>
@@ -11860,7 +11854,7 @@
       <c r="A362" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B362" s="7" t="s">
+      <c r="B362" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C362" s="0" t="n">
@@ -11870,7 +11864,7 @@
         <v>14</v>
       </c>
       <c r="E362" s="6" t="n">
-        <v>13780</v>
+        <v>15490</v>
       </c>
       <c r="F362" s="0" t="s">
         <v>12</v>
@@ -11892,7 +11886,7 @@
       <c r="A363" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B363" s="7" t="s">
+      <c r="B363" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C363" s="0" t="n">
@@ -11902,7 +11896,7 @@
         <v>19</v>
       </c>
       <c r="E363" s="6" t="n">
-        <v>14550</v>
+        <v>16360</v>
       </c>
       <c r="F363" s="0" t="s">
         <v>12</v>
@@ -11924,7 +11918,7 @@
       <c r="A364" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B364" s="7" t="s">
+      <c r="B364" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C364" s="0" t="n">
@@ -11934,7 +11928,7 @@
         <v>24</v>
       </c>
       <c r="E364" s="6" t="n">
-        <v>15390</v>
+        <v>17310</v>
       </c>
       <c r="F364" s="0" t="s">
         <v>12</v>
@@ -11956,7 +11950,7 @@
       <c r="A365" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B365" s="7" t="s">
+      <c r="B365" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C365" s="0" t="n">
@@ -11966,7 +11960,7 @@
         <v>29</v>
       </c>
       <c r="E365" s="6" t="n">
-        <v>16420</v>
+        <v>18460</v>
       </c>
       <c r="F365" s="0" t="s">
         <v>12</v>
@@ -11988,7 +11982,7 @@
       <c r="A366" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B366" s="7" t="s">
+      <c r="B366" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C366" s="0" t="n">
@@ -11998,7 +11992,7 @@
         <v>34</v>
       </c>
       <c r="E366" s="6" t="n">
-        <v>17310</v>
+        <v>19470</v>
       </c>
       <c r="F366" s="0" t="s">
         <v>12</v>
@@ -12020,7 +12014,7 @@
       <c r="A367" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B367" s="7" t="s">
+      <c r="B367" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C367" s="0" t="n">
@@ -12030,7 +12024,7 @@
         <v>39</v>
       </c>
       <c r="E367" s="6" t="n">
-        <v>19820</v>
+        <v>22280</v>
       </c>
       <c r="F367" s="0" t="s">
         <v>12</v>
@@ -12052,7 +12046,7 @@
       <c r="A368" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B368" s="7" t="s">
+      <c r="B368" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C368" s="0" t="n">
@@ -12062,7 +12056,7 @@
         <v>44</v>
       </c>
       <c r="E368" s="6" t="n">
-        <v>21270</v>
+        <v>23910</v>
       </c>
       <c r="F368" s="0" t="s">
         <v>12</v>
@@ -12084,7 +12078,7 @@
       <c r="A369" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B369" s="7" t="s">
+      <c r="B369" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C369" s="0" t="n">
@@ -12094,7 +12088,7 @@
         <v>49</v>
       </c>
       <c r="E369" s="6" t="n">
-        <v>25770</v>
+        <v>28980</v>
       </c>
       <c r="F369" s="0" t="s">
         <v>12</v>
@@ -12116,7 +12110,7 @@
       <c r="A370" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B370" s="7" t="s">
+      <c r="B370" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C370" s="0" t="n">
@@ -12126,7 +12120,7 @@
         <v>54</v>
       </c>
       <c r="E370" s="6" t="n">
-        <v>31330</v>
+        <v>35220</v>
       </c>
       <c r="F370" s="0" t="s">
         <v>12</v>
@@ -12148,7 +12142,7 @@
       <c r="A371" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B371" s="7" t="s">
+      <c r="B371" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C371" s="0" t="n">
@@ -12158,7 +12152,7 @@
         <v>59</v>
       </c>
       <c r="E371" s="6" t="n">
-        <v>33600</v>
+        <v>37770</v>
       </c>
       <c r="F371" s="0" t="s">
         <v>12</v>
@@ -12180,7 +12174,7 @@
       <c r="A372" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B372" s="7" t="s">
+      <c r="B372" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C372" s="0" t="n">
@@ -12190,7 +12184,7 @@
         <v>64</v>
       </c>
       <c r="E372" s="6" t="n">
-        <v>40050</v>
+        <v>45040</v>
       </c>
       <c r="F372" s="0" t="s">
         <v>12</v>
@@ -12212,7 +12206,7 @@
       <c r="A373" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B373" s="7" t="s">
+      <c r="B373" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C373" s="0" t="n">
@@ -12222,7 +12216,7 @@
         <v>99</v>
       </c>
       <c r="E373" s="6" t="n">
-        <v>77900</v>
+        <v>87600</v>
       </c>
       <c r="F373" s="0" t="s">
         <v>12</v>
@@ -12244,7 +12238,7 @@
       <c r="A374" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B374" s="7" t="s">
+      <c r="B374" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C374" s="0" t="n">
@@ -12254,7 +12248,7 @@
         <v>14</v>
       </c>
       <c r="E374" s="6" t="n">
-        <v>13780</v>
+        <v>15490</v>
       </c>
       <c r="F374" s="0" t="s">
         <v>17</v>
@@ -12276,7 +12270,7 @@
       <c r="A375" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B375" s="7" t="s">
+      <c r="B375" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C375" s="0" t="n">
@@ -12286,7 +12280,7 @@
         <v>19</v>
       </c>
       <c r="E375" s="6" t="n">
-        <v>14550</v>
+        <v>16360</v>
       </c>
       <c r="F375" s="0" t="s">
         <v>17</v>
@@ -12308,7 +12302,7 @@
       <c r="A376" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B376" s="7" t="s">
+      <c r="B376" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C376" s="0" t="n">
@@ -12318,7 +12312,7 @@
         <v>24</v>
       </c>
       <c r="E376" s="6" t="n">
-        <v>16910</v>
+        <v>19020</v>
       </c>
       <c r="F376" s="0" t="s">
         <v>17</v>
@@ -12340,7 +12334,7 @@
       <c r="A377" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B377" s="7" t="s">
+      <c r="B377" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C377" s="0" t="n">
@@ -12350,7 +12344,7 @@
         <v>29</v>
       </c>
       <c r="E377" s="6" t="n">
-        <v>19680</v>
+        <v>22140</v>
       </c>
       <c r="F377" s="0" t="s">
         <v>17</v>
@@ -12372,7 +12366,7 @@
       <c r="A378" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B378" s="7" t="s">
+      <c r="B378" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C378" s="0" t="n">
@@ -12382,7 +12376,7 @@
         <v>34</v>
       </c>
       <c r="E378" s="6" t="n">
-        <v>21620</v>
+        <v>24310</v>
       </c>
       <c r="F378" s="0" t="s">
         <v>17</v>
@@ -12404,7 +12398,7 @@
       <c r="A379" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B379" s="7" t="s">
+      <c r="B379" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C379" s="0" t="n">
@@ -12414,7 +12408,7 @@
         <v>39</v>
       </c>
       <c r="E379" s="6" t="n">
-        <v>23750</v>
+        <v>26710</v>
       </c>
       <c r="F379" s="0" t="s">
         <v>17</v>
@@ -12436,7 +12430,7 @@
       <c r="A380" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B380" s="7" t="s">
+      <c r="B380" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C380" s="0" t="n">
@@ -12446,7 +12440,7 @@
         <v>44</v>
       </c>
       <c r="E380" s="6" t="n">
-        <v>24440</v>
+        <v>27480</v>
       </c>
       <c r="F380" s="0" t="s">
         <v>17</v>
@@ -12468,7 +12462,7 @@
       <c r="A381" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B381" s="7" t="s">
+      <c r="B381" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C381" s="0" t="n">
@@ -12478,7 +12472,7 @@
         <v>49</v>
       </c>
       <c r="E381" s="6" t="n">
-        <v>26550</v>
+        <v>29850</v>
       </c>
       <c r="F381" s="0" t="s">
         <v>17</v>
@@ -12500,7 +12494,7 @@
       <c r="A382" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B382" s="7" t="s">
+      <c r="B382" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C382" s="0" t="n">
@@ -12510,7 +12504,7 @@
         <v>54</v>
       </c>
       <c r="E382" s="6" t="n">
-        <v>31330</v>
+        <v>35220</v>
       </c>
       <c r="F382" s="0" t="s">
         <v>17</v>
@@ -12532,7 +12526,7 @@
       <c r="A383" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B383" s="7" t="s">
+      <c r="B383" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C383" s="0" t="n">
@@ -12542,7 +12536,7 @@
         <v>59</v>
       </c>
       <c r="E383" s="6" t="n">
-        <v>33600</v>
+        <v>37770</v>
       </c>
       <c r="F383" s="0" t="s">
         <v>17</v>
@@ -12564,7 +12558,7 @@
       <c r="A384" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B384" s="7" t="s">
+      <c r="B384" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C384" s="0" t="n">
@@ -12574,7 +12568,7 @@
         <v>64</v>
       </c>
       <c r="E384" s="6" t="n">
-        <v>40050</v>
+        <v>45040</v>
       </c>
       <c r="F384" s="0" t="s">
         <v>17</v>
@@ -12596,7 +12590,7 @@
       <c r="A385" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B385" s="7" t="s">
+      <c r="B385" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C385" s="0" t="n">
@@ -12606,7 +12600,7 @@
         <v>99</v>
       </c>
       <c r="E385" s="6" t="n">
-        <v>77900</v>
+        <v>87600</v>
       </c>
       <c r="F385" s="0" t="s">
         <v>17</v>
@@ -12628,7 +12622,7 @@
       <c r="A386" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B386" s="7" t="s">
+      <c r="B386" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C386" s="0" t="n">
@@ -12638,7 +12632,7 @@
         <v>14</v>
       </c>
       <c r="E386" s="6" t="n">
-        <v>14760</v>
+        <v>16470</v>
       </c>
       <c r="F386" s="0" t="s">
         <v>12</v>
@@ -12660,7 +12654,7 @@
       <c r="A387" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B387" s="7" t="s">
+      <c r="B387" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C387" s="0" t="n">
@@ -12670,7 +12664,7 @@
         <v>19</v>
       </c>
       <c r="E387" s="6" t="n">
-        <v>15620</v>
+        <v>17430</v>
       </c>
       <c r="F387" s="0" t="s">
         <v>12</v>
@@ -12692,7 +12686,7 @@
       <c r="A388" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B388" s="7" t="s">
+      <c r="B388" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C388" s="0" t="n">
@@ -12702,7 +12696,7 @@
         <v>24</v>
       </c>
       <c r="E388" s="6" t="n">
-        <v>16530</v>
+        <v>18440</v>
       </c>
       <c r="F388" s="0" t="s">
         <v>12</v>
@@ -12724,7 +12718,7 @@
       <c r="A389" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B389" s="7" t="s">
+      <c r="B389" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C389" s="0" t="n">
@@ -12734,7 +12728,7 @@
         <v>29</v>
       </c>
       <c r="E389" s="6" t="n">
-        <v>17630</v>
+        <v>19660</v>
       </c>
       <c r="F389" s="0" t="s">
         <v>12</v>
@@ -12756,7 +12750,7 @@
       <c r="A390" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B390" s="7" t="s">
+      <c r="B390" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C390" s="0" t="n">
@@ -12766,7 +12760,7 @@
         <v>34</v>
       </c>
       <c r="E390" s="6" t="n">
-        <v>18590</v>
+        <v>20750</v>
       </c>
       <c r="F390" s="0" t="s">
         <v>12</v>
@@ -12788,7 +12782,7 @@
       <c r="A391" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B391" s="7" t="s">
+      <c r="B391" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C391" s="0" t="n">
@@ -12798,7 +12792,7 @@
         <v>39</v>
       </c>
       <c r="E391" s="6" t="n">
-        <v>21310</v>
+        <v>23770</v>
       </c>
       <c r="F391" s="0" t="s">
         <v>12</v>
@@ -12820,7 +12814,7 @@
       <c r="A392" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B392" s="7" t="s">
+      <c r="B392" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C392" s="0" t="n">
@@ -12830,7 +12824,7 @@
         <v>44</v>
       </c>
       <c r="E392" s="6" t="n">
-        <v>22880</v>
+        <v>25520</v>
       </c>
       <c r="F392" s="0" t="s">
         <v>12</v>
@@ -12852,7 +12846,7 @@
       <c r="A393" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B393" s="7" t="s">
+      <c r="B393" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C393" s="0" t="n">
@@ -12862,7 +12856,7 @@
         <v>49</v>
       </c>
       <c r="E393" s="6" t="n">
-        <v>27750</v>
+        <v>30950</v>
       </c>
       <c r="F393" s="0" t="s">
         <v>12</v>
@@ -12884,7 +12878,7 @@
       <c r="A394" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B394" s="7" t="s">
+      <c r="B394" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C394" s="0" t="n">
@@ -12894,7 +12888,7 @@
         <v>54</v>
       </c>
       <c r="E394" s="6" t="n">
-        <v>33740</v>
+        <v>37630</v>
       </c>
       <c r="F394" s="0" t="s">
         <v>12</v>
@@ -12916,7 +12910,7 @@
       <c r="A395" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B395" s="7" t="s">
+      <c r="B395" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C395" s="0" t="n">
@@ -12926,7 +12920,7 @@
         <v>59</v>
       </c>
       <c r="E395" s="6" t="n">
-        <v>36110</v>
+        <v>40280</v>
       </c>
       <c r="F395" s="0" t="s">
         <v>12</v>
@@ -12948,7 +12942,7 @@
       <c r="A396" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B396" s="7" t="s">
+      <c r="B396" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C396" s="0" t="n">
@@ -12958,7 +12952,7 @@
         <v>64</v>
       </c>
       <c r="E396" s="6" t="n">
-        <v>43050</v>
+        <v>48030</v>
       </c>
       <c r="F396" s="0" t="s">
         <v>12</v>
@@ -12980,7 +12974,7 @@
       <c r="A397" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B397" s="7" t="s">
+      <c r="B397" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C397" s="0" t="n">
@@ -12990,7 +12984,7 @@
         <v>99</v>
       </c>
       <c r="E397" s="6" t="n">
-        <v>81550</v>
+        <v>91250</v>
       </c>
       <c r="F397" s="0" t="s">
         <v>12</v>
@@ -13012,7 +13006,7 @@
       <c r="A398" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B398" s="7" t="s">
+      <c r="B398" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C398" s="0" t="n">
@@ -13022,7 +13016,7 @@
         <v>14</v>
       </c>
       <c r="E398" s="6" t="n">
-        <v>14760</v>
+        <v>16470</v>
       </c>
       <c r="F398" s="0" t="s">
         <v>17</v>
@@ -13044,7 +13038,7 @@
       <c r="A399" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B399" s="7" t="s">
+      <c r="B399" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C399" s="0" t="n">
@@ -13054,7 +13048,7 @@
         <v>19</v>
       </c>
       <c r="E399" s="6" t="n">
-        <v>15620</v>
+        <v>17430</v>
       </c>
       <c r="F399" s="0" t="s">
         <v>17</v>
@@ -13076,7 +13070,7 @@
       <c r="A400" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B400" s="7" t="s">
+      <c r="B400" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C400" s="0" t="n">
@@ -13086,7 +13080,7 @@
         <v>24</v>
       </c>
       <c r="E400" s="6" t="n">
-        <v>18050</v>
+        <v>20150</v>
       </c>
       <c r="F400" s="0" t="s">
         <v>17</v>
@@ -13108,7 +13102,7 @@
       <c r="A401" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B401" s="7" t="s">
+      <c r="B401" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C401" s="0" t="n">
@@ -13118,7 +13112,7 @@
         <v>29</v>
       </c>
       <c r="E401" s="6" t="n">
-        <v>20890</v>
+        <v>23340</v>
       </c>
       <c r="F401" s="0" t="s">
         <v>17</v>
@@ -13140,7 +13134,7 @@
       <c r="A402" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B402" s="7" t="s">
+      <c r="B402" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C402" s="0" t="n">
@@ -13150,7 +13144,7 @@
         <v>34</v>
       </c>
       <c r="E402" s="6" t="n">
-        <v>22900</v>
+        <v>25590</v>
       </c>
       <c r="F402" s="0" t="s">
         <v>17</v>
@@ -13172,7 +13166,7 @@
       <c r="A403" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B403" s="7" t="s">
+      <c r="B403" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C403" s="0" t="n">
@@ -13182,7 +13176,7 @@
         <v>39</v>
       </c>
       <c r="E403" s="6" t="n">
-        <v>25250</v>
+        <v>28200</v>
       </c>
       <c r="F403" s="0" t="s">
         <v>17</v>
@@ -13204,7 +13198,7 @@
       <c r="A404" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B404" s="7" t="s">
+      <c r="B404" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C404" s="0" t="n">
@@ -13214,7 +13208,7 @@
         <v>44</v>
       </c>
       <c r="E404" s="6" t="n">
-        <v>26050</v>
+        <v>29080</v>
       </c>
       <c r="F404" s="0" t="s">
         <v>17</v>
@@ -13236,7 +13230,7 @@
       <c r="A405" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B405" s="7" t="s">
+      <c r="B405" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C405" s="0" t="n">
@@ -13246,7 +13240,7 @@
         <v>49</v>
       </c>
       <c r="E405" s="6" t="n">
-        <v>28520</v>
+        <v>31820</v>
       </c>
       <c r="F405" s="0" t="s">
         <v>17</v>
@@ -13268,7 +13262,7 @@
       <c r="A406" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B406" s="7" t="s">
+      <c r="B406" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C406" s="0" t="n">
@@ -13278,7 +13272,7 @@
         <v>54</v>
       </c>
       <c r="E406" s="6" t="n">
-        <v>33740</v>
+        <v>37630</v>
       </c>
       <c r="F406" s="0" t="s">
         <v>17</v>
@@ -13300,7 +13294,7 @@
       <c r="A407" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B407" s="7" t="s">
+      <c r="B407" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C407" s="0" t="n">
@@ -13310,7 +13304,7 @@
         <v>59</v>
       </c>
       <c r="E407" s="6" t="n">
-        <v>36110</v>
+        <v>40280</v>
       </c>
       <c r="F407" s="0" t="s">
         <v>17</v>
@@ -13332,7 +13326,7 @@
       <c r="A408" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B408" s="7" t="s">
+      <c r="B408" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C408" s="0" t="n">
@@ -13342,7 +13336,7 @@
         <v>64</v>
       </c>
       <c r="E408" s="6" t="n">
-        <v>43050</v>
+        <v>48030</v>
       </c>
       <c r="F408" s="0" t="s">
         <v>17</v>
@@ -13364,7 +13358,7 @@
       <c r="A409" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B409" s="7" t="s">
+      <c r="B409" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C409" s="0" t="n">
@@ -13374,7 +13368,7 @@
         <v>99</v>
       </c>
       <c r="E409" s="6" t="n">
-        <v>81550</v>
+        <v>91250</v>
       </c>
       <c r="F409" s="0" t="s">
         <v>17</v>
@@ -13396,7 +13390,7 @@
       <c r="A410" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B410" s="7" t="s">
+      <c r="B410" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C410" s="0" t="n">
@@ -13406,7 +13400,7 @@
         <v>14</v>
       </c>
       <c r="E410" s="6" t="n">
-        <v>14760</v>
+        <v>16470</v>
       </c>
       <c r="F410" s="0" t="s">
         <v>12</v>
@@ -13428,7 +13422,7 @@
       <c r="A411" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B411" s="7" t="s">
+      <c r="B411" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C411" s="0" t="n">
@@ -13438,7 +13432,7 @@
         <v>19</v>
       </c>
       <c r="E411" s="6" t="n">
-        <v>15620</v>
+        <v>17430</v>
       </c>
       <c r="F411" s="0" t="s">
         <v>12</v>
@@ -13460,7 +13454,7 @@
       <c r="A412" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B412" s="7" t="s">
+      <c r="B412" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C412" s="0" t="n">
@@ -13470,7 +13464,7 @@
         <v>24</v>
       </c>
       <c r="E412" s="6" t="n">
-        <v>16530</v>
+        <v>18440</v>
       </c>
       <c r="F412" s="0" t="s">
         <v>12</v>
@@ -13492,7 +13486,7 @@
       <c r="A413" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B413" s="7" t="s">
+      <c r="B413" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C413" s="0" t="n">
@@ -13502,7 +13496,7 @@
         <v>29</v>
       </c>
       <c r="E413" s="6" t="n">
-        <v>17630</v>
+        <v>19660</v>
       </c>
       <c r="F413" s="0" t="s">
         <v>12</v>
@@ -13524,7 +13518,7 @@
       <c r="A414" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B414" s="7" t="s">
+      <c r="B414" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C414" s="0" t="n">
@@ -13534,7 +13528,7 @@
         <v>34</v>
       </c>
       <c r="E414" s="6" t="n">
-        <v>18590</v>
+        <v>20750</v>
       </c>
       <c r="F414" s="0" t="s">
         <v>12</v>
@@ -13556,7 +13550,7 @@
       <c r="A415" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B415" s="7" t="s">
+      <c r="B415" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C415" s="0" t="n">
@@ -13566,7 +13560,7 @@
         <v>39</v>
       </c>
       <c r="E415" s="6" t="n">
-        <v>21310</v>
+        <v>23770</v>
       </c>
       <c r="F415" s="0" t="s">
         <v>12</v>
@@ -13588,7 +13582,7 @@
       <c r="A416" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B416" s="7" t="s">
+      <c r="B416" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C416" s="0" t="n">
@@ -13598,7 +13592,7 @@
         <v>44</v>
       </c>
       <c r="E416" s="6" t="n">
-        <v>22880</v>
+        <v>25520</v>
       </c>
       <c r="F416" s="0" t="s">
         <v>12</v>
@@ -13620,7 +13614,7 @@
       <c r="A417" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B417" s="7" t="s">
+      <c r="B417" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C417" s="0" t="n">
@@ -13630,7 +13624,7 @@
         <v>49</v>
       </c>
       <c r="E417" s="6" t="n">
-        <v>27750</v>
+        <v>30950</v>
       </c>
       <c r="F417" s="0" t="s">
         <v>12</v>
@@ -13652,7 +13646,7 @@
       <c r="A418" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B418" s="7" t="s">
+      <c r="B418" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C418" s="0" t="n">
@@ -13662,7 +13656,7 @@
         <v>54</v>
       </c>
       <c r="E418" s="6" t="n">
-        <v>33740</v>
+        <v>37630</v>
       </c>
       <c r="F418" s="0" t="s">
         <v>12</v>
@@ -13684,7 +13678,7 @@
       <c r="A419" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B419" s="7" t="s">
+      <c r="B419" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C419" s="0" t="n">
@@ -13694,7 +13688,7 @@
         <v>59</v>
       </c>
       <c r="E419" s="6" t="n">
-        <v>36110</v>
+        <v>40280</v>
       </c>
       <c r="F419" s="0" t="s">
         <v>12</v>
@@ -13716,7 +13710,7 @@
       <c r="A420" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B420" s="7" t="s">
+      <c r="B420" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C420" s="0" t="n">
@@ -13726,7 +13720,7 @@
         <v>64</v>
       </c>
       <c r="E420" s="6" t="n">
-        <v>43050</v>
+        <v>48030</v>
       </c>
       <c r="F420" s="0" t="s">
         <v>12</v>
@@ -13748,7 +13742,7 @@
       <c r="A421" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B421" s="7" t="s">
+      <c r="B421" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C421" s="0" t="n">
@@ -13758,7 +13752,7 @@
         <v>99</v>
       </c>
       <c r="E421" s="6" t="n">
-        <v>81550</v>
+        <v>91250</v>
       </c>
       <c r="F421" s="0" t="s">
         <v>12</v>
@@ -13780,7 +13774,7 @@
       <c r="A422" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B422" s="7" t="s">
+      <c r="B422" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C422" s="0" t="n">
@@ -13790,7 +13784,7 @@
         <v>14</v>
       </c>
       <c r="E422" s="6" t="n">
-        <v>14760</v>
+        <v>16470</v>
       </c>
       <c r="F422" s="0" t="s">
         <v>17</v>
@@ -13812,7 +13806,7 @@
       <c r="A423" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B423" s="7" t="s">
+      <c r="B423" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C423" s="0" t="n">
@@ -13822,7 +13816,7 @@
         <v>19</v>
       </c>
       <c r="E423" s="6" t="n">
-        <v>15620</v>
+        <v>17430</v>
       </c>
       <c r="F423" s="0" t="s">
         <v>17</v>
@@ -13844,7 +13838,7 @@
       <c r="A424" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B424" s="7" t="s">
+      <c r="B424" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C424" s="0" t="n">
@@ -13854,7 +13848,7 @@
         <v>24</v>
       </c>
       <c r="E424" s="6" t="n">
-        <v>18580</v>
+        <v>20690</v>
       </c>
       <c r="F424" s="0" t="s">
         <v>17</v>
@@ -13876,7 +13870,7 @@
       <c r="A425" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B425" s="7" t="s">
+      <c r="B425" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C425" s="0" t="n">
@@ -13886,7 +13880,7 @@
         <v>29</v>
       </c>
       <c r="E425" s="6" t="n">
-        <v>21450</v>
+        <v>23900</v>
       </c>
       <c r="F425" s="0" t="s">
         <v>17</v>
@@ -13908,7 +13902,7 @@
       <c r="A426" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B426" s="7" t="s">
+      <c r="B426" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C426" s="0" t="n">
@@ -13918,7 +13912,7 @@
         <v>34</v>
       </c>
       <c r="E426" s="6" t="n">
-        <v>23510</v>
+        <v>26200</v>
       </c>
       <c r="F426" s="0" t="s">
         <v>17</v>
@@ -13940,7 +13934,7 @@
       <c r="A427" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B427" s="7" t="s">
+      <c r="B427" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C427" s="0" t="n">
@@ -13950,7 +13944,7 @@
         <v>39</v>
       </c>
       <c r="E427" s="6" t="n">
-        <v>25950</v>
+        <v>28910</v>
       </c>
       <c r="F427" s="0" t="s">
         <v>17</v>
@@ -13972,7 +13966,7 @@
       <c r="A428" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B428" s="7" t="s">
+      <c r="B428" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C428" s="0" t="n">
@@ -13982,7 +13976,7 @@
         <v>44</v>
       </c>
       <c r="E428" s="6" t="n">
-        <v>26800</v>
+        <v>29840</v>
       </c>
       <c r="F428" s="0" t="s">
         <v>17</v>
@@ -14004,7 +13998,7 @@
       <c r="A429" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B429" s="7" t="s">
+      <c r="B429" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C429" s="0" t="n">
@@ -14014,7 +14008,7 @@
         <v>49</v>
       </c>
       <c r="E429" s="6" t="n">
-        <v>28520</v>
+        <v>31820</v>
       </c>
       <c r="F429" s="0" t="s">
         <v>17</v>
@@ -14036,7 +14030,7 @@
       <c r="A430" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B430" s="7" t="s">
+      <c r="B430" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C430" s="0" t="n">
@@ -14046,7 +14040,7 @@
         <v>54</v>
       </c>
       <c r="E430" s="6" t="n">
-        <v>33740</v>
+        <v>37630</v>
       </c>
       <c r="F430" s="0" t="s">
         <v>17</v>
@@ -14068,7 +14062,7 @@
       <c r="A431" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B431" s="7" t="s">
+      <c r="B431" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C431" s="0" t="n">
@@ -14078,7 +14072,7 @@
         <v>59</v>
       </c>
       <c r="E431" s="6" t="n">
-        <v>36110</v>
+        <v>40280</v>
       </c>
       <c r="F431" s="0" t="s">
         <v>17</v>
@@ -14100,7 +14094,7 @@
       <c r="A432" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B432" s="7" t="s">
+      <c r="B432" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C432" s="0" t="n">
@@ -14110,7 +14104,7 @@
         <v>64</v>
       </c>
       <c r="E432" s="6" t="n">
-        <v>43050</v>
+        <v>48030</v>
       </c>
       <c r="F432" s="0" t="s">
         <v>17</v>
@@ -14132,7 +14126,7 @@
       <c r="A433" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B433" s="7" t="s">
+      <c r="B433" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C433" s="0" t="n">
@@ -14142,7 +14136,7 @@
         <v>99</v>
       </c>
       <c r="E433" s="6" t="n">
-        <v>81550</v>
+        <v>91250</v>
       </c>
       <c r="F433" s="0" t="s">
         <v>17</v>
@@ -14164,7 +14158,7 @@
       <c r="A434" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B434" s="7" t="s">
+      <c r="B434" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C434" s="0" t="n">
@@ -14174,7 +14168,7 @@
         <v>14</v>
       </c>
       <c r="E434" s="6" t="n">
-        <v>15390</v>
+        <v>17100</v>
       </c>
       <c r="F434" s="0" t="s">
         <v>12</v>
@@ -14196,7 +14190,7 @@
       <c r="A435" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B435" s="7" t="s">
+      <c r="B435" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C435" s="0" t="n">
@@ -14206,7 +14200,7 @@
         <v>19</v>
       </c>
       <c r="E435" s="6" t="n">
-        <v>16290</v>
+        <v>18100</v>
       </c>
       <c r="F435" s="0" t="s">
         <v>12</v>
@@ -14228,7 +14222,7 @@
       <c r="A436" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B436" s="7" t="s">
+      <c r="B436" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C436" s="0" t="n">
@@ -14238,7 +14232,7 @@
         <v>24</v>
       </c>
       <c r="E436" s="6" t="n">
-        <v>17240</v>
+        <v>19160</v>
       </c>
       <c r="F436" s="0" t="s">
         <v>12</v>
@@ -14260,7 +14254,7 @@
       <c r="A437" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B437" s="7" t="s">
+      <c r="B437" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C437" s="0" t="n">
@@ -14270,7 +14264,7 @@
         <v>29</v>
       </c>
       <c r="E437" s="6" t="n">
-        <v>18360</v>
+        <v>20400</v>
       </c>
       <c r="F437" s="0" t="s">
         <v>12</v>
@@ -14292,7 +14286,7 @@
       <c r="A438" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B438" s="7" t="s">
+      <c r="B438" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C438" s="0" t="n">
@@ -14302,7 +14296,7 @@
         <v>34</v>
       </c>
       <c r="E438" s="6" t="n">
-        <v>19380</v>
+        <v>21540</v>
       </c>
       <c r="F438" s="0" t="s">
         <v>12</v>
@@ -14324,7 +14318,7 @@
       <c r="A439" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B439" s="7" t="s">
+      <c r="B439" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C439" s="0" t="n">
@@ -14334,7 +14328,7 @@
         <v>39</v>
       </c>
       <c r="E439" s="6" t="n">
-        <v>22240</v>
+        <v>24700</v>
       </c>
       <c r="F439" s="0" t="s">
         <v>12</v>
@@ -14356,7 +14350,7 @@
       <c r="A440" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B440" s="7" t="s">
+      <c r="B440" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C440" s="0" t="n">
@@ -14366,7 +14360,7 @@
         <v>44</v>
       </c>
       <c r="E440" s="6" t="n">
-        <v>23890</v>
+        <v>26530</v>
       </c>
       <c r="F440" s="0" t="s">
         <v>12</v>
@@ -14388,7 +14382,7 @@
       <c r="A441" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B441" s="7" t="s">
+      <c r="B441" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C441" s="0" t="n">
@@ -14398,7 +14392,7 @@
         <v>49</v>
       </c>
       <c r="E441" s="6" t="n">
-        <v>28990</v>
+        <v>32200</v>
       </c>
       <c r="F441" s="0" t="s">
         <v>12</v>
@@ -14420,7 +14414,7 @@
       <c r="A442" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B442" s="7" t="s">
+      <c r="B442" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C442" s="0" t="n">
@@ -14430,7 +14424,7 @@
         <v>54</v>
       </c>
       <c r="E442" s="6" t="n">
-        <v>35260</v>
+        <v>39150</v>
       </c>
       <c r="F442" s="0" t="s">
         <v>12</v>
@@ -14452,7 +14446,7 @@
       <c r="A443" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B443" s="7" t="s">
+      <c r="B443" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C443" s="0" t="n">
@@ -14462,7 +14456,7 @@
         <v>59</v>
       </c>
       <c r="E443" s="6" t="n">
-        <v>37690</v>
+        <v>41870</v>
       </c>
       <c r="F443" s="0" t="s">
         <v>12</v>
@@ -14484,7 +14478,7 @@
       <c r="A444" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B444" s="7" t="s">
+      <c r="B444" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C444" s="0" t="n">
@@ -14494,7 +14488,7 @@
         <v>64</v>
       </c>
       <c r="E444" s="6" t="n">
-        <v>44960</v>
+        <v>49940</v>
       </c>
       <c r="F444" s="0" t="s">
         <v>12</v>
@@ -14516,7 +14510,7 @@
       <c r="A445" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B445" s="7" t="s">
+      <c r="B445" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C445" s="0" t="n">
@@ -14526,7 +14520,7 @@
         <v>99</v>
       </c>
       <c r="E445" s="6" t="n">
-        <v>83850</v>
+        <v>93550</v>
       </c>
       <c r="F445" s="0" t="s">
         <v>12</v>
@@ -14548,7 +14542,7 @@
       <c r="A446" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B446" s="7" t="s">
+      <c r="B446" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C446" s="0" t="n">
@@ -14558,7 +14552,7 @@
         <v>14</v>
       </c>
       <c r="E446" s="6" t="n">
-        <v>15390</v>
+        <v>17100</v>
       </c>
       <c r="F446" s="0" t="s">
         <v>17</v>
@@ -14580,7 +14574,7 @@
       <c r="A447" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B447" s="7" t="s">
+      <c r="B447" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C447" s="0" t="n">
@@ -14590,7 +14584,7 @@
         <v>19</v>
       </c>
       <c r="E447" s="6" t="n">
-        <v>16290</v>
+        <v>18100</v>
       </c>
       <c r="F447" s="0" t="s">
         <v>17</v>
@@ -14612,7 +14606,7 @@
       <c r="A448" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B448" s="7" t="s">
+      <c r="B448" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C448" s="0" t="n">
@@ -14622,7 +14616,7 @@
         <v>24</v>
       </c>
       <c r="E448" s="6" t="n">
-        <v>19300</v>
+        <v>21400</v>
       </c>
       <c r="F448" s="0" t="s">
         <v>17</v>
@@ -14644,7 +14638,7 @@
       <c r="A449" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B449" s="7" t="s">
+      <c r="B449" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C449" s="0" t="n">
@@ -14654,7 +14648,7 @@
         <v>29</v>
       </c>
       <c r="E449" s="6" t="n">
-        <v>22180</v>
+        <v>24640</v>
       </c>
       <c r="F449" s="0" t="s">
         <v>17</v>
@@ -14676,7 +14670,7 @@
       <c r="A450" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B450" s="7" t="s">
+      <c r="B450" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C450" s="0" t="n">
@@ -14686,7 +14680,7 @@
         <v>34</v>
       </c>
       <c r="E450" s="6" t="n">
-        <v>24300</v>
+        <v>26990</v>
       </c>
       <c r="F450" s="0" t="s">
         <v>17</v>
@@ -14708,7 +14702,7 @@
       <c r="A451" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B451" s="7" t="s">
+      <c r="B451" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C451" s="0" t="n">
@@ -14718,7 +14712,7 @@
         <v>39</v>
       </c>
       <c r="E451" s="6" t="n">
-        <v>26880</v>
+        <v>29840</v>
       </c>
       <c r="F451" s="0" t="s">
         <v>17</v>
@@ -14740,7 +14734,7 @@
       <c r="A452" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B452" s="7" t="s">
+      <c r="B452" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C452" s="0" t="n">
@@ -14750,7 +14744,7 @@
         <v>44</v>
       </c>
       <c r="E452" s="6" t="n">
-        <v>27810</v>
+        <v>30840</v>
       </c>
       <c r="F452" s="0" t="s">
         <v>17</v>
@@ -14772,7 +14766,7 @@
       <c r="A453" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B453" s="7" t="s">
+      <c r="B453" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C453" s="0" t="n">
@@ -14782,7 +14776,7 @@
         <v>49</v>
       </c>
       <c r="E453" s="6" t="n">
-        <v>29760</v>
+        <v>33060</v>
       </c>
       <c r="F453" s="0" t="s">
         <v>17</v>
@@ -14804,7 +14798,7 @@
       <c r="A454" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B454" s="7" t="s">
+      <c r="B454" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C454" s="0" t="n">
@@ -14814,7 +14808,7 @@
         <v>54</v>
       </c>
       <c r="E454" s="6" t="n">
-        <v>35260</v>
+        <v>39150</v>
       </c>
       <c r="F454" s="0" t="s">
         <v>17</v>
@@ -14836,7 +14830,7 @@
       <c r="A455" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B455" s="7" t="s">
+      <c r="B455" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C455" s="0" t="n">
@@ -14846,7 +14840,7 @@
         <v>59</v>
       </c>
       <c r="E455" s="6" t="n">
-        <v>37690</v>
+        <v>41870</v>
       </c>
       <c r="F455" s="0" t="s">
         <v>17</v>
@@ -14868,7 +14862,7 @@
       <c r="A456" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B456" s="7" t="s">
+      <c r="B456" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C456" s="0" t="n">
@@ -14878,7 +14872,7 @@
         <v>64</v>
       </c>
       <c r="E456" s="6" t="n">
-        <v>44960</v>
+        <v>49940</v>
       </c>
       <c r="F456" s="0" t="s">
         <v>17</v>
@@ -14900,7 +14894,7 @@
       <c r="A457" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B457" s="7" t="s">
+      <c r="B457" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C457" s="0" t="n">
@@ -14910,7 +14904,7 @@
         <v>99</v>
       </c>
       <c r="E457" s="6" t="n">
-        <v>83850</v>
+        <v>93550</v>
       </c>
       <c r="F457" s="0" t="s">
         <v>17</v>
@@ -14932,7 +14926,7 @@
       <c r="A458" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B458" s="7" t="s">
+      <c r="B458" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C458" s="0" t="n">
@@ -14942,7 +14936,7 @@
         <v>14</v>
       </c>
       <c r="E458" s="6" t="n">
-        <v>15820</v>
+        <v>17530</v>
       </c>
       <c r="F458" s="0" t="s">
         <v>12</v>
@@ -14964,7 +14958,7 @@
       <c r="A459" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B459" s="7" t="s">
+      <c r="B459" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C459" s="0" t="n">
@@ -14974,7 +14968,7 @@
         <v>19</v>
       </c>
       <c r="E459" s="6" t="n">
-        <v>16800</v>
+        <v>18600</v>
       </c>
       <c r="F459" s="0" t="s">
         <v>12</v>
@@ -14996,7 +14990,7 @@
       <c r="A460" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B460" s="7" t="s">
+      <c r="B460" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C460" s="0" t="n">
@@ -15006,7 +15000,7 @@
         <v>24</v>
       </c>
       <c r="E460" s="6" t="n">
-        <v>17770</v>
+        <v>19680</v>
       </c>
       <c r="F460" s="0" t="s">
         <v>12</v>
@@ -15028,7 +15022,7 @@
       <c r="A461" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B461" s="7" t="s">
+      <c r="B461" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C461" s="0" t="n">
@@ -15038,7 +15032,7 @@
         <v>29</v>
       </c>
       <c r="E461" s="6" t="n">
-        <v>18900</v>
+        <v>20940</v>
       </c>
       <c r="F461" s="0" t="s">
         <v>12</v>
@@ -15060,7 +15054,7 @@
       <c r="A462" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B462" s="7" t="s">
+      <c r="B462" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C462" s="0" t="n">
@@ -15070,7 +15064,7 @@
         <v>34</v>
       </c>
       <c r="E462" s="6" t="n">
-        <v>19950</v>
+        <v>22100</v>
       </c>
       <c r="F462" s="0" t="s">
         <v>12</v>
@@ -15092,7 +15086,7 @@
       <c r="A463" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B463" s="7" t="s">
+      <c r="B463" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C463" s="0" t="n">
@@ -15102,7 +15096,7 @@
         <v>39</v>
       </c>
       <c r="E463" s="6" t="n">
-        <v>22900</v>
+        <v>25360</v>
       </c>
       <c r="F463" s="0" t="s">
         <v>12</v>
@@ -15124,7 +15118,7 @@
       <c r="A464" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B464" s="7" t="s">
+      <c r="B464" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C464" s="0" t="n">
@@ -15134,7 +15128,7 @@
         <v>44</v>
       </c>
       <c r="E464" s="6" t="n">
-        <v>24600</v>
+        <v>27240</v>
       </c>
       <c r="F464" s="0" t="s">
         <v>12</v>
@@ -15156,7 +15150,7 @@
       <c r="A465" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B465" s="7" t="s">
+      <c r="B465" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C465" s="0" t="n">
@@ -15166,7 +15160,7 @@
         <v>49</v>
       </c>
       <c r="E465" s="6" t="n">
-        <v>29870</v>
+        <v>33080</v>
       </c>
       <c r="F465" s="0" t="s">
         <v>12</v>
@@ -15188,7 +15182,7 @@
       <c r="A466" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B466" s="7" t="s">
+      <c r="B466" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C466" s="0" t="n">
@@ -15198,7 +15192,7 @@
         <v>54</v>
       </c>
       <c r="E466" s="6" t="n">
-        <v>36330</v>
+        <v>40220</v>
       </c>
       <c r="F466" s="0" t="s">
         <v>12</v>
@@ -15220,7 +15214,7 @@
       <c r="A467" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B467" s="7" t="s">
+      <c r="B467" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C467" s="0" t="n">
@@ -15230,7 +15224,7 @@
         <v>59</v>
       </c>
       <c r="E467" s="6" t="n">
-        <v>38830</v>
+        <v>43010</v>
       </c>
       <c r="F467" s="0" t="s">
         <v>12</v>
@@ -15252,7 +15246,7 @@
       <c r="A468" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B468" s="7" t="s">
+      <c r="B468" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C468" s="0" t="n">
@@ -15262,7 +15256,7 @@
         <v>64</v>
       </c>
       <c r="E468" s="6" t="n">
-        <v>46320</v>
+        <v>51310</v>
       </c>
       <c r="F468" s="0" t="s">
         <v>12</v>
@@ -15284,7 +15278,7 @@
       <c r="A469" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B469" s="7" t="s">
+      <c r="B469" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C469" s="0" t="n">
@@ -15294,7 +15288,7 @@
         <v>99</v>
       </c>
       <c r="E469" s="6" t="n">
-        <v>85500</v>
+        <v>95200</v>
       </c>
       <c r="F469" s="0" t="s">
         <v>12</v>
@@ -15316,7 +15310,7 @@
       <c r="A470" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B470" s="7" t="s">
+      <c r="B470" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C470" s="0" t="n">
@@ -15326,7 +15320,7 @@
         <v>14</v>
       </c>
       <c r="E470" s="6" t="n">
-        <v>15820</v>
+        <v>17530</v>
       </c>
       <c r="F470" s="0" t="s">
         <v>17</v>
@@ -15348,7 +15342,7 @@
       <c r="A471" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B471" s="7" t="s">
+      <c r="B471" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C471" s="0" t="n">
@@ -15358,7 +15352,7 @@
         <v>19</v>
       </c>
       <c r="E471" s="6" t="n">
-        <v>16800</v>
+        <v>18600</v>
       </c>
       <c r="F471" s="0" t="s">
         <v>17</v>
@@ -15380,7 +15374,7 @@
       <c r="A472" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B472" s="7" t="s">
+      <c r="B472" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C472" s="0" t="n">
@@ -15390,7 +15384,7 @@
         <v>24</v>
       </c>
       <c r="E472" s="6" t="n">
-        <v>19820</v>
+        <v>21930</v>
       </c>
       <c r="F472" s="0" t="s">
         <v>17</v>
@@ -15412,7 +15406,7 @@
       <c r="A473" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B473" s="7" t="s">
+      <c r="B473" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C473" s="0" t="n">
@@ -15422,7 +15416,7 @@
         <v>29</v>
       </c>
       <c r="E473" s="6" t="n">
-        <v>22730</v>
+        <v>25180</v>
       </c>
       <c r="F473" s="0" t="s">
         <v>17</v>
@@ -15444,7 +15438,7 @@
       <c r="A474" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B474" s="7" t="s">
+      <c r="B474" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C474" s="0" t="n">
@@ -15454,7 +15448,7 @@
         <v>34</v>
       </c>
       <c r="E474" s="6" t="n">
-        <v>24860</v>
+        <v>27550</v>
       </c>
       <c r="F474" s="0" t="s">
         <v>17</v>
@@ -15476,7 +15470,7 @@
       <c r="A475" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B475" s="7" t="s">
+      <c r="B475" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C475" s="0" t="n">
@@ -15486,7 +15480,7 @@
         <v>39</v>
       </c>
       <c r="E475" s="6" t="n">
-        <v>27540</v>
+        <v>30490</v>
       </c>
       <c r="F475" s="0" t="s">
         <v>17</v>
@@ -15508,7 +15502,7 @@
       <c r="A476" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B476" s="7" t="s">
+      <c r="B476" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C476" s="0" t="n">
@@ -15518,7 +15512,7 @@
         <v>44</v>
       </c>
       <c r="E476" s="6" t="n">
-        <v>28520</v>
+        <v>31560</v>
       </c>
       <c r="F476" s="0" t="s">
         <v>17</v>
@@ -15540,7 +15534,7 @@
       <c r="A477" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B477" s="7" t="s">
+      <c r="B477" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C477" s="0" t="n">
@@ -15550,7 +15544,7 @@
         <v>49</v>
       </c>
       <c r="E477" s="6" t="n">
-        <v>30640</v>
+        <v>33940</v>
       </c>
       <c r="F477" s="0" t="s">
         <v>17</v>
@@ -15572,7 +15566,7 @@
       <c r="A478" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B478" s="7" t="s">
+      <c r="B478" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C478" s="0" t="n">
@@ -15582,7 +15576,7 @@
         <v>54</v>
       </c>
       <c r="E478" s="6" t="n">
-        <v>36330</v>
+        <v>40220</v>
       </c>
       <c r="F478" s="0" t="s">
         <v>17</v>
@@ -15604,7 +15598,7 @@
       <c r="A479" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B479" s="7" t="s">
+      <c r="B479" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C479" s="0" t="n">
@@ -15614,7 +15608,7 @@
         <v>59</v>
       </c>
       <c r="E479" s="6" t="n">
-        <v>38830</v>
+        <v>43010</v>
       </c>
       <c r="F479" s="0" t="s">
         <v>17</v>
@@ -15636,7 +15630,7 @@
       <c r="A480" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B480" s="7" t="s">
+      <c r="B480" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C480" s="0" t="n">
@@ -15646,7 +15640,7 @@
         <v>64</v>
       </c>
       <c r="E480" s="6" t="n">
-        <v>46320</v>
+        <v>51310</v>
       </c>
       <c r="F480" s="0" t="s">
         <v>17</v>
@@ -15668,7 +15662,7 @@
       <c r="A481" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B481" s="7" t="s">
+      <c r="B481" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C481" s="0" t="n">
@@ -15678,7 +15672,7 @@
         <v>99</v>
       </c>
       <c r="E481" s="6" t="n">
-        <v>85500</v>
+        <v>95200</v>
       </c>
       <c r="F481" s="0" t="s">
         <v>17</v>
@@ -15697,7 +15691,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K481"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -15705,6 +15698,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>